--- a/full_list.xlsx
+++ b/full_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <si>
     <t>Type</t>
   </si>
@@ -23,6 +23,1272 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>M_id</t>
+  </si>
+  <si>
+    <t>S_id</t>
+  </si>
+  <si>
+    <t>4b148822f964a5204ca423e3</t>
+  </si>
+  <si>
+    <t>4b16737ff964a5203cb923e3</t>
+  </si>
+  <si>
+    <t>4b1913d5f964a520b5d723e3</t>
+  </si>
+  <si>
+    <t>4b1a48b2f964a520a3e823e3</t>
+  </si>
+  <si>
+    <t>4b1b3f8ff964a52021fa23e3</t>
+  </si>
+  <si>
+    <t>4b20ce9bf964a520bc3424e3</t>
+  </si>
+  <si>
+    <t>4b246677f964a520156724e3</t>
+  </si>
+  <si>
+    <t>4b24a84cf964a520416924e3</t>
+  </si>
+  <si>
+    <t>4b2b1d94f964a52080b424e3</t>
+  </si>
+  <si>
+    <t>4b31714bf964a520070725e3</t>
+  </si>
+  <si>
+    <t>4b3b282af964a520217125e3</t>
+  </si>
+  <si>
+    <t>4b3bb90bf964a520aa7925e3</t>
+  </si>
+  <si>
+    <t>4b3d697cf964a520d19325e3</t>
+  </si>
+  <si>
+    <t>4b3da3e9f964a520f79525e3</t>
+  </si>
+  <si>
+    <t>4b48ced4f964a520eb5726e3</t>
+  </si>
+  <si>
+    <t>4b4ab67cf964a520618d26e3</t>
+  </si>
+  <si>
+    <t>4b4ad7b2f964a520f08e26e3</t>
+  </si>
+  <si>
+    <t>4b5049cdf964a520d01f27e3</t>
+  </si>
+  <si>
+    <t>4b508c1ef964a520d82627e3</t>
+  </si>
+  <si>
+    <t>4b55b59cf964a520bdec27e3</t>
+  </si>
+  <si>
+    <t>4b5704aef964a5200d2328e3</t>
+  </si>
+  <si>
+    <t>4b5bd507f964a520c41829e3</t>
+  </si>
+  <si>
+    <t>4b5c12f2f964a520472329e3</t>
+  </si>
+  <si>
+    <t>4b5cac36f964a5208a3d29e3</t>
+  </si>
+  <si>
+    <t>4b612c04f964a520e70b2ae3</t>
+  </si>
+  <si>
+    <t>4b627b01f964a52029492ae3</t>
+  </si>
+  <si>
+    <t>4b64526df964a52088aa2ae3</t>
+  </si>
+  <si>
+    <t>4b66d77ff964a520062d2be3</t>
+  </si>
+  <si>
+    <t>4b6d29d3f964a5208f692ce3</t>
+  </si>
+  <si>
+    <t>4b70102ef964a52089052de3</t>
+  </si>
+  <si>
+    <t>4b7a1400f964a5200a222fe3</t>
+  </si>
+  <si>
+    <t>4b7a3981f964a520d4262fe3</t>
+  </si>
+  <si>
+    <t>4b7aa49ef964a520ff342fe3</t>
+  </si>
+  <si>
+    <t>4b7f628df964a520842b30e3</t>
+  </si>
+  <si>
+    <t>4b833b5ef964a5207ffe30e3</t>
+  </si>
+  <si>
+    <t>4b89275af964a520b21f32e3</t>
+  </si>
+  <si>
+    <t>4b90701cf964a520508a33e3</t>
+  </si>
+  <si>
+    <t>4b930271f964a520852e34e3</t>
+  </si>
+  <si>
+    <t>4b9a4396f964a52033a835e3</t>
+  </si>
+  <si>
+    <t>4ba1f7adf964a52016d437e3</t>
+  </si>
+  <si>
+    <t>4ba3005ff964a520362738e3</t>
+  </si>
+  <si>
+    <t>4ba4a506f964a52055a938e3</t>
+  </si>
+  <si>
+    <t>4ba58885f964a5200b1039e3</t>
+  </si>
+  <si>
+    <t>4bae246ff964a5206c893be3</t>
+  </si>
+  <si>
+    <t>4bae8e9cf964a5205dc03be3</t>
+  </si>
+  <si>
+    <t>4baeeb84f964a520d8e13be3</t>
+  </si>
+  <si>
+    <t>4bc092a9abf495217c68bf93</t>
+  </si>
+  <si>
+    <t>4bc71f2414d795219dbb66e9</t>
+  </si>
+  <si>
+    <t>4bc9a77868f976b09c9b5d83</t>
+  </si>
+  <si>
+    <t>4bcbee0b68f976b029f66183</t>
+  </si>
+  <si>
+    <t>4bd3b37277b29c74448d9182</t>
+  </si>
+  <si>
+    <t>4bd5193829eb9c749bee92e1</t>
+  </si>
+  <si>
+    <t>4bd670126f64952147f270ec</t>
+  </si>
+  <si>
+    <t>4bd6f44e5631c9b682a2a630</t>
+  </si>
+  <si>
+    <t>4bd7c2680b779c74fbec05a0</t>
+  </si>
+  <si>
+    <t>4bd80b0b0b779c740e4106a0</t>
+  </si>
+  <si>
+    <t>4bd83094dc4b9521ce837888</t>
+  </si>
+  <si>
+    <t>4bdb7b792a3a0f47a85fafb6</t>
+  </si>
+  <si>
+    <t>4bdfca6489ca76b060c65d5e</t>
+  </si>
+  <si>
+    <t>4be25bd9d27a20a1738c8f5b</t>
+  </si>
+  <si>
+    <t>4be4b252cf200f47555f123c</t>
+  </si>
+  <si>
+    <t>4bed853e9868a59312815d46</t>
+  </si>
+  <si>
+    <t>4bee93863686c9b6e7a3246e</t>
+  </si>
+  <si>
+    <t>4bf1e56f99d02d7f19b6c948</t>
+  </si>
+  <si>
+    <t>4bf39fa894af2d7f91ab3972</t>
+  </si>
+  <si>
+    <t>4bf55575ff90c9b62e375628</t>
+  </si>
+  <si>
+    <t>4bf89615508c0f471cad3e31</t>
+  </si>
+  <si>
+    <t>4c021260fd082d7f93f30785</t>
+  </si>
+  <si>
+    <t>4c07c6efa9c076b0bb663923</t>
+  </si>
+  <si>
+    <t>4c0e3b82d64c0f47f4c9275d</t>
+  </si>
+  <si>
+    <t>4c14a5f0a9c220a1d8e7579d</t>
+  </si>
+  <si>
+    <t>4c1c676efcf8c9b6621caa0b</t>
+  </si>
+  <si>
+    <t>4c1cea9cb306c928379664b7</t>
+  </si>
+  <si>
+    <t>4c1dde7a624b9c744f051304</t>
+  </si>
+  <si>
+    <t>4c2092748b3aa5932b109f5f</t>
+  </si>
+  <si>
+    <t>4c215b9a7e85c928c96fba21</t>
+  </si>
+  <si>
+    <t>4c28935d3492a593b27fb728</t>
+  </si>
+  <si>
+    <t>4c3049a63896e21e4064e590</t>
+  </si>
+  <si>
+    <t>4c3d926215cb1b8d91127cdc</t>
+  </si>
+  <si>
+    <t>4c493ceb20ab1b8d25298216</t>
+  </si>
+  <si>
+    <t>4c4bc2005609c9b6970c8c91</t>
+  </si>
+  <si>
+    <t>4c71bbd6d944224b65130b29</t>
+  </si>
+  <si>
+    <t>4c777966d06b224b2897fed6</t>
+  </si>
+  <si>
+    <t>4c79c3c781bca09378b7fe14</t>
+  </si>
+  <si>
+    <t>4c898292770fb60c9bbccac3</t>
+  </si>
+  <si>
+    <t>4c9ead248afca09361830316</t>
+  </si>
+  <si>
+    <t>4c9ecef354c8a1cd90c4914b</t>
+  </si>
+  <si>
+    <t>4ca32e825720b1f774352fef</t>
+  </si>
+  <si>
+    <t>4ca86eb0b0b8236aaf47b3e6</t>
+  </si>
+  <si>
+    <t>4caab5a4f47ea14372888521</t>
+  </si>
+  <si>
+    <t>4cb1ecc875ebb60c97ded0ad</t>
+  </si>
+  <si>
+    <t>4cbe41e5ca4aa1cd915e13b4</t>
+  </si>
+  <si>
+    <t>4cc22cecc844721e6ce4da01</t>
+  </si>
+  <si>
+    <t>4cd001f348b837048c67efde</t>
+  </si>
+  <si>
+    <t>4cd62432ab19a09357bb43eb</t>
+  </si>
+  <si>
+    <t>4ce405d9c46e6dcbb44dd915</t>
+  </si>
+  <si>
+    <t>4ce7a52c75c62c0faf9ce557</t>
+  </si>
+  <si>
+    <t>4cf485b06195721e5ecb52c1</t>
+  </si>
+  <si>
+    <t>4d018005c8bda093c04e76af</t>
+  </si>
+  <si>
+    <t>4d11a5520c786ea87424d2ab</t>
+  </si>
+  <si>
+    <t>4d1c09fd7e10a35d3146fc82</t>
+  </si>
+  <si>
+    <t>4d202f99dd6a236aa2973538</t>
+  </si>
+  <si>
+    <t>4d25b3a43b62f04d0dbb2278</t>
+  </si>
+  <si>
+    <t>4d32c17b5c2db60ca937c56c</t>
+  </si>
+  <si>
+    <t>4d5563b116a6b60ccb634af8</t>
+  </si>
+  <si>
+    <t>4d7220f15f003704b8a6daa0</t>
+  </si>
+  <si>
+    <t>4d756f0f05e3224b9540e078</t>
+  </si>
+  <si>
+    <t>4d8c41742da46ea8e805236d</t>
+  </si>
+  <si>
+    <t>4e37934818a8470916cc536c</t>
+  </si>
+  <si>
+    <t>4e48958b62845e1d3cae8fd8</t>
+  </si>
+  <si>
+    <t>4e8ad019c2ee233764d76590</t>
+  </si>
+  <si>
+    <t>4e9ec42d1081a02e6380e587</t>
+  </si>
+  <si>
+    <t>4ee5b91aaa1fd7f7559576a5</t>
+  </si>
+  <si>
+    <t>4f009903b6346feaed82af03</t>
+  </si>
+  <si>
+    <t>4f502d75e4b0b71c78b7485a</t>
+  </si>
+  <si>
+    <t>4fe5b28be4b005c24dcfe24c</t>
+  </si>
+  <si>
+    <t>5076b054e4b09b164ec4cec9</t>
+  </si>
+  <si>
+    <t>50c5e53ee4b0e0fa363daa13</t>
+  </si>
+  <si>
+    <t>51fdf7db498ec7e9e8ac6acd</t>
+  </si>
+  <si>
+    <t>52046e04498e0294bf987b89</t>
+  </si>
+  <si>
+    <t>520c788b11d2e3f789ec2178</t>
+  </si>
+  <si>
+    <t>520de85111d2305fdd2ff335</t>
+  </si>
+  <si>
+    <t>5293f6a011d21ad71e98b06d</t>
+  </si>
+  <si>
+    <t>52c04ea9498e66d01c01ee0b</t>
+  </si>
+  <si>
+    <t>53280b8d498e3b97ef8500ab</t>
+  </si>
+  <si>
+    <t>53d5c39d498ee27b94af0170</t>
+  </si>
+  <si>
+    <t>56862e40498e9cd564f3707f</t>
+  </si>
+  <si>
+    <t>5716d34d498e90419a6e6a6e</t>
+  </si>
+  <si>
+    <t>57bdfc69498e5370e02c5a4c</t>
+  </si>
+  <si>
+    <t>58888b6f297c166c812bfadf</t>
+  </si>
+  <si>
+    <t>59a92e57112c6c22fee1af25</t>
+  </si>
+  <si>
+    <t>5a20c1dad48ec1695502414a</t>
+  </si>
+  <si>
+    <t>5bf58fd72b9844002cb86ee4</t>
+  </si>
+  <si>
+    <t>4b2f537ef964a520c9ea24e3</t>
+  </si>
+  <si>
+    <t>4b3b4badf964a520397225e3</t>
+  </si>
+  <si>
+    <t>4b484113f964a520af4a26e3</t>
+  </si>
+  <si>
+    <t>4b7fb6d5f964a520453a30e3</t>
+  </si>
+  <si>
+    <t>4ba06a98f964a520d36c37e3</t>
+  </si>
+  <si>
+    <t>4bb7602b6edc76b03214321c</t>
+  </si>
+  <si>
+    <t>4bb760d2d535b7138267dd21</t>
+  </si>
+  <si>
+    <t>4bb9811098c7ef3b08293202</t>
+  </si>
+  <si>
+    <t>4bc912ac937ca593da35a592</t>
+  </si>
+  <si>
+    <t>4bc91df5937ca5932f53a592</t>
+  </si>
+  <si>
+    <t>4be3fd17d27a20a16e65935b</t>
+  </si>
+  <si>
+    <t>4be63da92468c928d83f0143</t>
+  </si>
+  <si>
+    <t>4bf776185317a593bf34fe7e</t>
+  </si>
+  <si>
+    <t>4bfcf5abf61dc9b692469ede</t>
+  </si>
+  <si>
+    <t>4c0465a2f56c2d7f87441e66</t>
+  </si>
+  <si>
+    <t>4c0f9fb01281c9b610d31e1d</t>
+  </si>
+  <si>
+    <t>4c1c263ee9c4ef3b55c445aa</t>
+  </si>
+  <si>
+    <t>4c316927452620a1aba5200f</t>
+  </si>
+  <si>
+    <t>4c356c857cc0c9b64408f59a</t>
+  </si>
+  <si>
+    <t>4c3a37d62c8020a11b088e00</t>
+  </si>
+  <si>
+    <t>4c552aa85b839521b7d8e031</t>
+  </si>
+  <si>
+    <t>4c7de11b9221236a33b4803d</t>
+  </si>
+  <si>
+    <t>4c8642e788e6199cdd5fd1d4</t>
+  </si>
+  <si>
+    <t>4c8b2d952e333704d4efca41</t>
+  </si>
+  <si>
+    <t>4c8b4bde770fb60c75bbdac3</t>
+  </si>
+  <si>
+    <t>4c8f7c2ea8de224b40d62f01</t>
+  </si>
+  <si>
+    <t>4c973d9b533aa0932c0bd845</t>
+  </si>
+  <si>
+    <t>4ca0455b46978cfa983eb27f</t>
+  </si>
+  <si>
+    <t>4ca1b68b46978cfa992bbe7f</t>
+  </si>
+  <si>
+    <t>4ca3f723d5a2a143e4324e90</t>
+  </si>
+  <si>
+    <t>4ca736a1931bb60c68b19ae2</t>
+  </si>
+  <si>
+    <t>4cb0154bef1b3704a5073800</t>
+  </si>
+  <si>
+    <t>4cb0e2a6db32f04d5fd6c34d</t>
+  </si>
+  <si>
+    <t>4cb5470c64998cfa09ff0ca2</t>
+  </si>
+  <si>
+    <t>4cb905794495721e5f2f487a</t>
+  </si>
+  <si>
+    <t>4cb983d6f50e224b76e7edfb</t>
+  </si>
+  <si>
+    <t>4cce6d07b571b60c676bde65</t>
+  </si>
+  <si>
+    <t>4cd4299aecc3a09363599e93</t>
+  </si>
+  <si>
+    <t>4cd63a42aeb1224b1f8c27ff</t>
+  </si>
+  <si>
+    <t>4cd6bf8589eb6dcb6f16311e</t>
+  </si>
+  <si>
+    <t>4cde10ac41ed224bdcc9d63c</t>
+  </si>
+  <si>
+    <t>4cdf937194c3b60ca7e06cea</t>
+  </si>
+  <si>
+    <t>4ce8c72094daa09031751d29</t>
+  </si>
+  <si>
+    <t>4ce8c8fc94daa090d5761d29</t>
+  </si>
+  <si>
+    <t>4ce9170c8ef78cfaaac19e9b</t>
+  </si>
+  <si>
+    <t>4cf4e5f71d18a1437f6568ec</t>
+  </si>
+  <si>
+    <t>4d01b61d3be26dcb145074e4</t>
+  </si>
+  <si>
+    <t>4d1cacd4c17ff04de299c841</t>
+  </si>
+  <si>
+    <t>4d246cb7e704b60c87a160a9</t>
+  </si>
+  <si>
+    <t>4d26e3e2915fa0931434ee09</t>
+  </si>
+  <si>
+    <t>4d2c0dcb77a2a1cdd13d82b7</t>
+  </si>
+  <si>
+    <t>4d3e4da005b8721e9de99c37</t>
+  </si>
+  <si>
+    <t>4d4a8e39b480a143311d30ec</t>
+  </si>
+  <si>
+    <t>4d4e83e59a2a6ea83a46236f</t>
+  </si>
+  <si>
+    <t>4d782eacdb7c5481cc532df2</t>
+  </si>
+  <si>
+    <t>4dc911bbd22d4e36b453f631</t>
+  </si>
+  <si>
+    <t>4de5ddf4c65b98fadaee69ce</t>
+  </si>
+  <si>
+    <t>4e18f8d162e12640d87b3355</t>
+  </si>
+  <si>
+    <t>4e3ff4ae45dd68e327592986</t>
+  </si>
+  <si>
+    <t>4e583f50b0fb4c4d61fd6140</t>
+  </si>
+  <si>
+    <t>4e5b2e16814db47c302ff862</t>
+  </si>
+  <si>
+    <t>4e61d67552b1260c12dd86b0</t>
+  </si>
+  <si>
+    <t>4e7972e6aeb79f7dab79342b</t>
+  </si>
+  <si>
+    <t>4e851d8f0aaf87dea42af730</t>
+  </si>
+  <si>
+    <t>4f253779e4b0b653a45d139b</t>
+  </si>
+  <si>
+    <t>4f3e48cdc2ee72338968538b</t>
+  </si>
+  <si>
+    <t>4f733e8ce4b053123fa535c7</t>
+  </si>
+  <si>
+    <t>4fcea6f2e4b01830c302eed0</t>
+  </si>
+  <si>
+    <t>4fe4940be4b006713d3238e5</t>
+  </si>
+  <si>
+    <t>4ff544b2e4b048eef6f53dc1</t>
+  </si>
+  <si>
+    <t>500939aae4b08a1af5751e31</t>
+  </si>
+  <si>
+    <t>501ca7cae4b0ad6cc88c4765</t>
+  </si>
+  <si>
+    <t>5083c857e4b00dbb9df8eaf5</t>
+  </si>
+  <si>
+    <t>50aa18bde4b0d7e301af0f5c</t>
+  </si>
+  <si>
+    <t>50c35680e4b0e9bc06fe9029</t>
+  </si>
+  <si>
+    <t>50ca8130e4b0de304b1533d7</t>
+  </si>
+  <si>
+    <t>512b1c84e4b0ff6b61ec0379</t>
+  </si>
+  <si>
+    <t>51614732e4b0a489ee375eb1</t>
+  </si>
+  <si>
+    <t>51c6cba1498e0374462019f8</t>
+  </si>
+  <si>
+    <t>51e511d8498e134a41a528be</t>
+  </si>
+  <si>
+    <t>52b25f5811d2ec890bbfd725</t>
+  </si>
+  <si>
+    <t>534e1bb6498e197eb6bea57e</t>
+  </si>
+  <si>
+    <t>5372267e498e14a2b540caf4</t>
+  </si>
+  <si>
+    <t>5399987e498ec50859045d92</t>
+  </si>
+  <si>
+    <t>53c3a336498e03a1e165b15c</t>
+  </si>
+  <si>
+    <t>53df8a32498e59584bfe6cdd</t>
+  </si>
+  <si>
+    <t>545b8662498eb1f62106fedd</t>
+  </si>
+  <si>
+    <t>551b87b1498eba78d2880d22</t>
+  </si>
+  <si>
+    <t>55601b2f498e4406b568fbef</t>
+  </si>
+  <si>
+    <t>557e68ca498e7fdd447c3143</t>
+  </si>
+  <si>
+    <t>55b0c29e498eba54131d34db</t>
+  </si>
+  <si>
+    <t>5632fe12498ededd3e7192af</t>
+  </si>
+  <si>
+    <t>56857611498ef577eba1882b</t>
+  </si>
+  <si>
+    <t>5699ddb6498e55968e2bfcb0</t>
+  </si>
+  <si>
+    <t>56fe6cdb498ea85cbdd135c8</t>
+  </si>
+  <si>
+    <t>570da3a6498ee46993f833cc</t>
+  </si>
+  <si>
+    <t>571c22d6498eec367c2a1a27</t>
+  </si>
+  <si>
+    <t>572028ddcd10a9d092d2efc1</t>
+  </si>
+  <si>
+    <t>5757ffdf498ec3b82485d9eb</t>
+  </si>
+  <si>
+    <t>57f9b791498e0e907ba58cf8</t>
+  </si>
+  <si>
+    <t>584b62be561ded236d17cb32</t>
+  </si>
+  <si>
+    <t>58bcffa3668af72c7b599f4a</t>
+  </si>
+  <si>
+    <t>5919dae3e4c4596092775579</t>
+  </si>
+  <si>
+    <t>59d74b3f112c6c43abbd1925</t>
+  </si>
+  <si>
+    <t>59f416acbb2a474e1f045788</t>
+  </si>
+  <si>
+    <t>5a65a6d218d43b05436da254</t>
+  </si>
+  <si>
+    <t>5aa2410aa22db77cd69513c0</t>
+  </si>
+  <si>
+    <t>5c0d1ce5bcbf7a002c85289f</t>
+  </si>
+  <si>
+    <t>4b0eeaf5f964a520c75c23e3</t>
+  </si>
+  <si>
+    <t>4b18f074f964a5209fd623e3</t>
+  </si>
+  <si>
+    <t>4b8228b1f964a52008cc30e3</t>
+  </si>
+  <si>
+    <t>4b2dc63bf964a52043db24e3</t>
+  </si>
+  <si>
+    <t>4b10b4aef964a520f47423e3</t>
+  </si>
+  <si>
+    <t>4b29cd69f964a52073a324e3</t>
+  </si>
+  <si>
+    <t>54e6fab0498e9a868e146e2c</t>
+  </si>
+  <si>
+    <t>4b9f9cf8f964a520f02e37e3</t>
+  </si>
+  <si>
+    <t>4b05e882f964a52096e522e3</t>
+  </si>
+  <si>
+    <t>546b095f498e8875ea2d6da8</t>
+  </si>
+  <si>
+    <t>4b3c5a1ef964a520fc8325e3</t>
+  </si>
+  <si>
+    <t>4b482323f964a520ea4826e3</t>
+  </si>
+  <si>
+    <t>4b38883cf964a520734e25e3</t>
+  </si>
+  <si>
+    <t>4bb1bbc1f964a520d1a03ce3</t>
+  </si>
+  <si>
+    <t>4bcedfc9c564ef3b83d7eef0</t>
+  </si>
+  <si>
+    <t>4b109272f964a5200d7323e3</t>
+  </si>
+  <si>
+    <t>4b5afc32f964a52077dd28e3</t>
+  </si>
+  <si>
+    <t>58493c3323188e20cc7f5393</t>
+  </si>
+  <si>
+    <t>4f12983de4b0297e5774a0a1</t>
+  </si>
+  <si>
+    <t>4bc845850050b7131208ba3b</t>
+  </si>
+  <si>
+    <t>4b1332dcf964a520669523e3</t>
+  </si>
+  <si>
+    <t>5a47153b17556227e46a6471</t>
+  </si>
+  <si>
+    <t>5716056e498e37401aa917cb</t>
+  </si>
+  <si>
+    <t>4bc6771351b376b0aab21b6f</t>
+  </si>
+  <si>
+    <t>4b233c83f964a520945424e3</t>
+  </si>
+  <si>
+    <t>4b13a67ff964a520379823e3</t>
+  </si>
+  <si>
+    <t>4b16743ef964a52047b923e3</t>
+  </si>
+  <si>
+    <t>4b348547f964a520c22725e3</t>
+  </si>
+  <si>
+    <t>5181b707498e33f3c197f33e</t>
+  </si>
+  <si>
+    <t>50e4dc53e4b0aaa2afee33a9</t>
+  </si>
+  <si>
+    <t>4f98e210e4b0fc88e753647f</t>
+  </si>
+  <si>
+    <t>50a22453498ea793e4a00e3a</t>
+  </si>
+  <si>
+    <t>54688c8f498ebcd5ac116675</t>
+  </si>
+  <si>
+    <t>4b160a6ef964a52098b623e3</t>
+  </si>
+  <si>
+    <t>553b364e498e2ed1f1733049</t>
+  </si>
+  <si>
+    <t>4d9303c27b5ea1433fb2bdb8</t>
+  </si>
+  <si>
+    <t>4b3044b1f964a52073f824e3</t>
+  </si>
+  <si>
+    <t>5507aa26498e0c5c13d2dcfb</t>
+  </si>
+  <si>
+    <t>5166ac9be4b0b04b19b3e02f</t>
+  </si>
+  <si>
+    <t>4b470fdcf964a520f62a26e3</t>
+  </si>
+  <si>
+    <t>4bd54a344e32d13ad4a7c080</t>
+  </si>
+  <si>
+    <t>4b836df2f964a5202d0631e3</t>
+  </si>
+  <si>
+    <t>4c1468b47f7f2d7f0bf3e068</t>
+  </si>
+  <si>
+    <t>4efd7c7d775bec6b41c7e73b</t>
+  </si>
+  <si>
+    <t>4f54c333e4b0b5d9dfef1ab0</t>
+  </si>
+  <si>
+    <t>4b668dedf964a52019242be3</t>
+  </si>
+  <si>
+    <t>4ba41e14f964a5204d8338e3</t>
+  </si>
+  <si>
+    <t>4b3067b7f964a52075f924e3</t>
+  </si>
+  <si>
+    <t>53db708f498e411c74ffb9c9</t>
+  </si>
+  <si>
+    <t>508107b6e4b0d2d662b54a44</t>
+  </si>
+  <si>
+    <t>4f7021bde4b07ec455019913</t>
+  </si>
+  <si>
+    <t>534785be498e3e4b337beb8b</t>
+  </si>
+  <si>
+    <t>4bee83692c082d7f377d3042</t>
+  </si>
+  <si>
+    <t>566ae23f498e6356a389aead</t>
+  </si>
+  <si>
+    <t>5b080ffa35811b002cbcfe29</t>
+  </si>
+  <si>
+    <t>4b5fd6b8f964a5206fce29e3</t>
+  </si>
+  <si>
+    <t>4ba361ccf964a520cb3838e3</t>
+  </si>
+  <si>
+    <t>4dadae4bbf88ebc4543855a7</t>
+  </si>
+  <si>
+    <t>570f232a498e865b1e09375a</t>
+  </si>
+  <si>
+    <t>4fa8729ce4b0f0ac1d5eef81</t>
+  </si>
+  <si>
+    <t>4b5ab80ef964a520f8d128e3</t>
+  </si>
+  <si>
+    <t>4baf139af964a5200cea3be3</t>
+  </si>
+  <si>
+    <t>57cb957a498e83038b4ab10b</t>
+  </si>
+  <si>
+    <t>528710cb11d299fbdb25650d</t>
+  </si>
+  <si>
+    <t>5292e884498eb23b3bf278c8</t>
+  </si>
+  <si>
+    <t>54f42544498eb6208a5e14d5</t>
+  </si>
+  <si>
+    <t>4bac3d91f964a520caec3ae3</t>
+  </si>
+  <si>
+    <t>527893d311d258a8ffc8c217</t>
+  </si>
+  <si>
+    <t>4bb01ec6f964a52042383ce3</t>
+  </si>
+  <si>
+    <t>4b206e66f964a520333224e3</t>
+  </si>
+  <si>
+    <t>52635ab3498ee4fb4ec95774</t>
+  </si>
+  <si>
+    <t>592cee8f7dc9e13a823b3a97</t>
+  </si>
+  <si>
+    <t>535f3195498ee780d97d8950</t>
+  </si>
+  <si>
+    <t>50aa34e9e4b0b2e8c0d7b54b</t>
+  </si>
+  <si>
+    <t>4fcff2bbe4b0523661f5722c</t>
+  </si>
+  <si>
+    <t>4b863c80f964a5207e8331e3</t>
+  </si>
+  <si>
+    <t>4d676ee2cba6a35d1998ccc1</t>
+  </si>
+  <si>
+    <t>4f76d13de4b015b23c6cebac</t>
+  </si>
+  <si>
+    <t>553071a7498e588738417526</t>
+  </si>
+  <si>
+    <t>50338310e4b0ca061ee19195</t>
+  </si>
+  <si>
+    <t>4b186280f964a520e7d123e3</t>
+  </si>
+  <si>
+    <t>53cb9a81498ee4f4fb506827</t>
+  </si>
+  <si>
+    <t>4b28354df964a520e69024e3</t>
+  </si>
+  <si>
+    <t>51fa737f498e8f22961c34c8</t>
+  </si>
+  <si>
+    <t>5614811e498e388fcae59658</t>
+  </si>
+  <si>
+    <t>4b1dfff4f964a520bc1624e3</t>
+  </si>
+  <si>
+    <t>4dcbe969e4cde609a3a3271b</t>
+  </si>
+  <si>
+    <t>52c90394498ea92386b7e08c</t>
+  </si>
+  <si>
+    <t>4bab1e2cf964a520bc953ae3</t>
+  </si>
+  <si>
+    <t>5062e1cfe4b0c706ac077d8a</t>
+  </si>
+  <si>
+    <t>51416847e4b01f9f5d982a80</t>
+  </si>
+  <si>
+    <t>4b3aa180f964a5208a6b25e3</t>
+  </si>
+  <si>
+    <t>56813db7498e6a84eecfd7a8</t>
+  </si>
+  <si>
+    <t>5b1b39401ffe97002c49d291</t>
+  </si>
+  <si>
+    <t>59a0040fdb1d817a92c56b59</t>
+  </si>
+  <si>
+    <t>59971a1612c8f04177e517c7</t>
+  </si>
+  <si>
+    <t>58182c4938fa606c11358477</t>
+  </si>
+  <si>
+    <t>4bb84180b35776b0d1cec801</t>
+  </si>
+  <si>
+    <t>4b39b018f964a520815e25e3</t>
+  </si>
+  <si>
+    <t>50dbdaf2e4b0658274a8adad</t>
+  </si>
+  <si>
+    <t>588dbb5f1d21ba220271a013</t>
+  </si>
+  <si>
+    <t>521ec0bf11d21fb025831c06</t>
+  </si>
+  <si>
+    <t>5bc9c0a586bc490039b148b3</t>
+  </si>
+  <si>
+    <t>56050c4e498e96c19eb660ab</t>
+  </si>
+  <si>
+    <t>5a9fa52b69e77b0fdd2f0d6a</t>
+  </si>
+  <si>
+    <t>4b8750cef964a52045bb31e3</t>
+  </si>
+  <si>
+    <t>595ca7a775cb8c11482f7d4b</t>
+  </si>
+  <si>
+    <t>4e759d1e1495be5171355592</t>
+  </si>
+  <si>
+    <t>56dcceac498eda09d692ccbf</t>
+  </si>
+  <si>
+    <t>4bd961b711dcc9285094f933</t>
+  </si>
+  <si>
+    <t>5b4736106dcf04002c2a2ea7</t>
+  </si>
+  <si>
+    <t>4f93fd6de4b01cffa20db610</t>
+  </si>
+  <si>
+    <t>59733405d69ed062b6ee5389</t>
+  </si>
+  <si>
+    <t>5691d11b498ed84881c60573</t>
+  </si>
+  <si>
+    <t>4ba3a212f964a520244e38e3</t>
+  </si>
+  <si>
+    <t>5a80131b64c8e10423eca93b</t>
+  </si>
+  <si>
+    <t>5688ea12498e7d9e0c5633a0</t>
+  </si>
+  <si>
+    <t>4c8dfd671664b1f780309c2f</t>
+  </si>
+  <si>
+    <t>4ca5811cb7106dcb5f4f55a5</t>
+  </si>
+  <si>
+    <t>4b4d3641f964a52053ce26e3</t>
+  </si>
+  <si>
+    <t>4c0361e26c349c742855750c</t>
+  </si>
+  <si>
+    <t>5a00fdcb8ad62e55de26223b</t>
+  </si>
+  <si>
+    <t>5c2f35e416fa04002cbfd374</t>
+  </si>
+  <si>
+    <t>4bbf309282a2ef3b14552cd2</t>
+  </si>
+  <si>
+    <t>4d1856eb25cda143560b7ed6</t>
+  </si>
+  <si>
+    <t>5c01eb7ac03635002c73d053</t>
+  </si>
+  <si>
+    <t>4b8c9c19f964a52024d832e3</t>
+  </si>
+  <si>
+    <t>4bb3f1039af3b7136dcc8b28</t>
+  </si>
+  <si>
+    <t>4bf3801d6a31d13a25c0942e</t>
+  </si>
+  <si>
+    <t>4c78cf8e2d3ba143a8388cd0</t>
+  </si>
+  <si>
+    <t>5c7798140457b7002c68a5ef</t>
+  </si>
+  <si>
+    <t>59d4a26b4f0e5839931435a9</t>
+  </si>
+  <si>
+    <t>4ec518ecf5b9b3183fee129b</t>
+  </si>
+  <si>
+    <t>4b4c36d3f964a520adaf26e3</t>
+  </si>
+  <si>
+    <t>4baee095f964a5200adf3be3</t>
+  </si>
+  <si>
+    <t>4bc19e55b492d13a1b4ea660</t>
+  </si>
+  <si>
+    <t>4c4c1ab742b4d13a2e7a9a7f</t>
+  </si>
+  <si>
+    <t>4c7a067e2d3ba143a45890d0</t>
+  </si>
+  <si>
+    <t>4c9b3cac292a6dcb7e72d576</t>
+  </si>
+  <si>
+    <t>4cb25214aef16dcb738bc054</t>
+  </si>
+  <si>
+    <t>4cb50d2664998cfac16a0ba2</t>
+  </si>
+  <si>
+    <t>4ccf6953f6378cfa0e9caed6</t>
+  </si>
+  <si>
+    <t>4d04c3729b7f60fc1cab09ab</t>
+  </si>
+  <si>
+    <t>4d95af76b188721ea28be336</t>
+  </si>
+  <si>
+    <t>4dbaad8043a1b9dbe87f34a6</t>
+  </si>
+  <si>
+    <t>4df9f52b7d8b1f1d6c069c7c</t>
+  </si>
+  <si>
+    <t>4e0abdab1f6e56a681059972</t>
+  </si>
+  <si>
+    <t>4f5ffc71e4b00e918e4be930</t>
+  </si>
+  <si>
+    <t>4f78279ae4b0ca8cfda079b8</t>
+  </si>
+  <si>
+    <t>4f852005e4b097bae7c7652d</t>
+  </si>
+  <si>
+    <t>4fd9a208e4b0318de7a8d2b3</t>
+  </si>
+  <si>
+    <t>500f3840e4b01e6d3dec5e12</t>
+  </si>
+  <si>
+    <t>5026692de4b0f23b015bbc6c</t>
+  </si>
+  <si>
+    <t>50cf08f7e4b0373cd025d6f4</t>
+  </si>
+  <si>
+    <t>52302f4411d296a91f2d5ce9</t>
+  </si>
+  <si>
+    <t>525622c611d2cb6b964e7a8a</t>
+  </si>
+  <si>
+    <t>5256666a2fc6b1a38a635867</t>
+  </si>
+  <si>
+    <t>5284c4c2498e70046e5779ca</t>
+  </si>
+  <si>
+    <t>52b58845498ea0f994099c1f</t>
+  </si>
+  <si>
+    <t>52e28d3711d2e2f874643b16</t>
+  </si>
+  <si>
+    <t>5311cacf498e3644b92729ee</t>
+  </si>
+  <si>
+    <t>538ddd9a498e5dbdaa55aa25</t>
+  </si>
+  <si>
+    <t>54a92824498ec5d633b87d2d</t>
+  </si>
+  <si>
+    <t>56b46b22498ea4461f556c62</t>
+  </si>
+  <si>
+    <t>57031c56498e4cc3661f6ddb</t>
+  </si>
+  <si>
+    <t>5784518e498e2c6e35247ed2</t>
+  </si>
+  <si>
+    <t>57d62612498e281d0bbe9583</t>
+  </si>
+  <si>
+    <t>57dd085c498e2c2a9218663e</t>
+  </si>
+  <si>
+    <t>57dd089b498ee91beab64b51</t>
+  </si>
+  <si>
+    <t>581fe766afe10172689ce00e</t>
+  </si>
+  <si>
+    <t>588a997f26a9530a8331e7fb</t>
+  </si>
+  <si>
+    <t>590978482be4252186d037a9</t>
+  </si>
+  <si>
+    <t>59942a5df0b49073250cc997</t>
+  </si>
+  <si>
+    <t>5ad569654a7aae29421982a5</t>
+  </si>
+  <si>
+    <t>5adac64c83e38027b3d806da</t>
+  </si>
+  <si>
+    <t>5afa90ef2d2fd9002cce1a75</t>
+  </si>
+  <si>
+    <t>5b2ceba6b8fd9d002c42950f</t>
+  </si>
+  <si>
+    <t>5c0334b6c21cb1002c473d48</t>
+  </si>
+  <si>
+    <t>5c0b0e49180b91002c149ef9</t>
   </si>
 </sst>
 </file>
@@ -380,13 +1646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +1662,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -410,8 +1682,14 @@
       <c r="D2">
         <v>114.192492065819</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -424,8 +1702,14 @@
       <c r="D3">
         <v>114.1729243391316</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -438,8 +1722,14 @@
       <c r="D4">
         <v>114.1685364375449</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -452,8 +1742,14 @@
       <c r="D5">
         <v>114.1971570715479</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -466,8 +1762,14 @@
       <c r="D6">
         <v>114.1896309923197</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -480,8 +1782,14 @@
       <c r="D7">
         <v>114.171794447664</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -494,8 +1802,14 @@
       <c r="D8">
         <v>114.2422249194414</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -508,8 +1822,14 @@
       <c r="D9">
         <v>114.2110458706055</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -522,8 +1842,14 @@
       <c r="D10">
         <v>114.1580586696231</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -536,8 +1862,14 @@
       <c r="D11">
         <v>114.2523884982452</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -550,8 +1882,14 @@
       <c r="D12">
         <v>114.1714620940247</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -564,8 +1902,14 @@
       <c r="D13">
         <v>114.1706862043765</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -578,8 +1922,14 @@
       <c r="D14">
         <v>114.2248537277222</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -592,8 +1942,14 @@
       <c r="D15">
         <v>114.1740414689481</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -601,13 +1957,19 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>22.28236230012797</v>
+        <v>22.38249607742882</v>
       </c>
       <c r="D16">
-        <v>114.1285214965208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>114.2716775247846</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -615,13 +1977,19 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>22.38249607742882</v>
+        <v>22.28487547196756</v>
       </c>
       <c r="D17">
-        <v>114.2716775247846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>114.1538601593737</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -629,13 +1997,19 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>22.28487547196756</v>
+        <v>22.29773044171306</v>
       </c>
       <c r="D18">
-        <v>114.1538601593737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>114.1724599764938</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -643,13 +2017,19 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>22.29773044171306</v>
+        <v>22.32955283964398</v>
       </c>
       <c r="D19">
-        <v>114.1724599764938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>114.1891391657234</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -657,13 +2037,19 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>22.32955283964398</v>
+        <v>22.3387070030788</v>
       </c>
       <c r="D20">
-        <v>114.1891391657234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>114.186601922367</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -671,13 +2057,19 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>22.3387070030788</v>
+        <v>22.3417959213908</v>
       </c>
       <c r="D21">
-        <v>114.186601922367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>114.2003091921239</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -685,13 +2077,19 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>22.3417959213908</v>
+        <v>22.28750930116582</v>
       </c>
       <c r="D22">
-        <v>114.2003091921239</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>114.2126379437223</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -699,13 +2097,19 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>22.28750930116582</v>
+        <v>22.45434746448201</v>
       </c>
       <c r="D23">
-        <v>114.2126379437223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>114.0032509032146</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -713,13 +2117,19 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>22.45434746448201</v>
+        <v>22.30941486673231</v>
       </c>
       <c r="D24">
-        <v>114.0032509032146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>114.2297735051727</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -727,13 +2137,19 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>22.30941486673231</v>
+        <v>22.38158904241001</v>
       </c>
       <c r="D25">
-        <v>114.2297735051727</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>114.1891621068118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -741,13 +2157,19 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>22.38158904241001</v>
+        <v>22.27972277909049</v>
       </c>
       <c r="D26">
-        <v>114.1891621068118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>114.1796505287984</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -755,13 +2177,19 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>22.27972277909049</v>
+        <v>22.28193124194085</v>
       </c>
       <c r="D27">
-        <v>114.1796505287984</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>114.1573191384283</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -769,13 +2197,19 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>22.28193124194085</v>
+        <v>22.28291829977913</v>
       </c>
       <c r="D28">
-        <v>114.1573191384283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>114.1515209903133</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -783,13 +2217,19 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>22.28291829977913</v>
+        <v>22.37069556357186</v>
       </c>
       <c r="D29">
-        <v>114.1515209903133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>114.1149993885759</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -797,13 +2237,19 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>22.37069556357186</v>
+        <v>22.38638770100975</v>
       </c>
       <c r="D30">
-        <v>114.1149993885759</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>114.2037529954302</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -811,13 +2257,19 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>22.38638770100975</v>
+        <v>22.28453398933525</v>
       </c>
       <c r="D31">
-        <v>114.2037529954302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>114.1367945953654</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -825,13 +2277,19 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>22.28453398933525</v>
+        <v>22.26334907015433</v>
       </c>
       <c r="D32">
-        <v>114.1367945953654</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>114.2364376669193</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -839,13 +2297,19 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>22.26334907015433</v>
+        <v>22.26679234767957</v>
       </c>
       <c r="D33">
-        <v>114.2364376669193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>114.2501235312959</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -853,13 +2317,19 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>22.26679234767957</v>
+        <v>22.30773587751288</v>
       </c>
       <c r="D34">
-        <v>114.2501235312959</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>114.1884999428552</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -867,13 +2337,19 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>22.30773587751288</v>
+        <v>22.28014547115361</v>
       </c>
       <c r="D35">
-        <v>114.1884999428552</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>114.1856204040918</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -881,13 +2357,19 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>22.28014547115361</v>
+        <v>22.36341747871662</v>
       </c>
       <c r="D36">
-        <v>114.1856204040918</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>114.1321405708015</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -895,13 +2377,19 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>22.36341747871662</v>
+        <v>22.32006719983083</v>
       </c>
       <c r="D37">
-        <v>114.1321405708015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>114.1659027757057</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -909,13 +2397,19 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>22.32006719983083</v>
+        <v>22.3572574971827</v>
       </c>
       <c r="D38">
-        <v>114.1659027757057</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>114.1271323964564</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -923,13 +2417,19 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>22.3572574971827</v>
+        <v>22.31593320688371</v>
       </c>
       <c r="D39">
-        <v>114.1271323964564</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>114.2653526291637</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -937,13 +2437,19 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>22.31593320688371</v>
+        <v>22.26830162068038</v>
       </c>
       <c r="D40">
-        <v>114.2653526291637</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>114.1859157054845</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -951,13 +2457,19 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>22.26830162068038</v>
+        <v>22.27803041918136</v>
       </c>
       <c r="D41">
-        <v>114.1859157054845</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>114.173275928681</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -965,13 +2477,19 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>22.27803041918136</v>
+        <v>22.31373252845775</v>
       </c>
       <c r="D42">
-        <v>114.173275928681</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>114.2212117183722</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -979,13 +2497,19 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>22.31373252845775</v>
+        <v>22.33681351818467</v>
       </c>
       <c r="D43">
-        <v>114.2212117183722</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>114.1446876035209</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -993,13 +2517,19 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>22.33681351818467</v>
+        <v>22.34094853674229</v>
       </c>
       <c r="D44">
-        <v>114.1446876035209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>114.1982543879102</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1007,13 +2537,19 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>22.34094853674229</v>
+        <v>22.31912831198175</v>
       </c>
       <c r="D45">
-        <v>114.1982543879102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>114.1731265657152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1021,13 +2557,19 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>22.31912831198175</v>
+        <v>22.3203554697255</v>
       </c>
       <c r="D46">
-        <v>114.1731265657152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>114.1709731857457</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1035,13 +2577,19 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>22.3203554697255</v>
+        <v>22.29619403413613</v>
       </c>
       <c r="D47">
-        <v>114.1709731857457</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>114.1688229257414</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1049,13 +2597,19 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>22.29619403413613</v>
+        <v>22.21905085835218</v>
       </c>
       <c r="D48">
-        <v>114.1688229257414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>114.2097986516457</v>
+      </c>
+      <c r="E48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1063,13 +2617,19 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>22.21905085835218</v>
+        <v>22.27881243322219</v>
       </c>
       <c r="D49">
-        <v>114.2097986516457</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>114.1789097100267</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1077,13 +2637,19 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>22.27881243322219</v>
+        <v>22.31755722708967</v>
       </c>
       <c r="D50">
-        <v>114.1789097100267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>114.1719955624756</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1091,13 +2657,19 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>22.25832910621818</v>
+        <v>22.28737496444148</v>
       </c>
       <c r="D51">
-        <v>114.1351251225447</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>114.1452224548808</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1105,13 +2677,19 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>22.31755722708967</v>
+        <v>22.39717029948252</v>
       </c>
       <c r="D52">
-        <v>114.1719955624756</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>114.1932162882626</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1119,13 +2697,19 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>22.28737496444148</v>
+        <v>22.31835783391341</v>
       </c>
       <c r="D53">
-        <v>114.1452224548808</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>114.1663753715695</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1133,13 +2717,19 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>22.39717029948252</v>
+        <v>22.45267577876612</v>
       </c>
       <c r="D54">
-        <v>114.1932162882626</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>114.1707827153782</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1147,13 +2737,19 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>22.31835783391341</v>
+        <v>22.3189977418976</v>
       </c>
       <c r="D55">
-        <v>114.1663753715695</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>114.1697601971321</v>
+      </c>
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1161,13 +2757,19 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>22.45267577876612</v>
+        <v>22.48813025056437</v>
       </c>
       <c r="D56">
-        <v>114.1707827153782</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>114.1406948392546</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1175,13 +2777,19 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>22.3189977418976</v>
+        <v>22.27947801400711</v>
       </c>
       <c r="D57">
-        <v>114.1697601971321</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>114.175003480009</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1189,13 +2797,19 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>22.48813025056437</v>
+        <v>22.3745972106157</v>
       </c>
       <c r="D58">
-        <v>114.1406948392546</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>114.115493672085</v>
+      </c>
+      <c r="E58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1203,13 +2817,19 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>22.27947801400711</v>
+        <v>22.28749647499552</v>
       </c>
       <c r="D59">
-        <v>114.175003480009</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>114.2112556525749</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1217,13 +2837,19 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>22.3745972106157</v>
+        <v>22.31906622808042</v>
       </c>
       <c r="D60">
-        <v>114.115493672085</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>114.1616466543141</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1231,13 +2857,19 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <v>22.28749647499552</v>
+        <v>22.29137364808315</v>
       </c>
       <c r="D61">
-        <v>114.2112556525749</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>114.2075008314278</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1245,13 +2877,19 @@
         <v>2</v>
       </c>
       <c r="C62">
-        <v>22.31906622808042</v>
+        <v>22.32151870323404</v>
       </c>
       <c r="D62">
-        <v>114.1616466543141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>114.2063646166565</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1259,13 +2897,19 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>22.29137364808315</v>
+        <v>22.39513591009327</v>
       </c>
       <c r="D63">
-        <v>114.2075008314278</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>113.976068379629</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1273,13 +2917,19 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>22.32151870323404</v>
+        <v>22.31712264261059</v>
       </c>
       <c r="D64">
-        <v>114.2063646166565</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>114.1780751142415</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1287,13 +2937,19 @@
         <v>2</v>
       </c>
       <c r="C65">
-        <v>22.39513591009327</v>
+        <v>22.28635008188508</v>
       </c>
       <c r="D65">
-        <v>113.976068379629</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>114.2173234745212</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F65" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1301,13 +2957,19 @@
         <v>2</v>
       </c>
       <c r="C66">
-        <v>22.31712264261059</v>
+        <v>22.37089701068035</v>
       </c>
       <c r="D66">
-        <v>114.1780751142415</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>114.1207241804644</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+      <c r="F66" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1315,13 +2977,19 @@
         <v>2</v>
       </c>
       <c r="C67">
-        <v>22.28635008188508</v>
+        <v>22.33797889253617</v>
       </c>
       <c r="D67">
-        <v>114.2173234745212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>114.1391330884052</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1329,13 +2997,19 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>22.37089701068035</v>
+        <v>22.3233665543222</v>
       </c>
       <c r="D68">
-        <v>114.1207241804644</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>114.2148408054362</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1343,13 +3017,19 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <v>22.33797889253617</v>
+        <v>22.33777456147472</v>
       </c>
       <c r="D69">
-        <v>114.1391330884052</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>114.2640535666005</v>
+      </c>
+      <c r="E69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1357,13 +3037,19 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>22.3233665543222</v>
+        <v>22.44647242072015</v>
       </c>
       <c r="D70">
-        <v>114.2148408054362</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>114.1684915973348</v>
+      </c>
+      <c r="E70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1371,13 +3057,19 @@
         <v>2</v>
       </c>
       <c r="C71">
-        <v>22.33777456147472</v>
+        <v>22.27735454123612</v>
       </c>
       <c r="D71">
-        <v>114.2640535666005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>114.1683671119278</v>
+      </c>
+      <c r="E71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1385,13 +3077,19 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>22.44647242072015</v>
+        <v>22.30818747082013</v>
       </c>
       <c r="D72">
-        <v>114.1684915973348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>114.1707782180061</v>
+      </c>
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1399,13 +3097,19 @@
         <v>2</v>
       </c>
       <c r="C73">
-        <v>22.27735454123612</v>
+        <v>22.30500713189207</v>
       </c>
       <c r="D73">
-        <v>114.1683671119278</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>114.190530768381</v>
+      </c>
+      <c r="E73" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1413,13 +3117,19 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>22.30818747082013</v>
+        <v>22.38052878623275</v>
       </c>
       <c r="D74">
-        <v>114.1707782180061</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>114.1877408423437</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1427,13 +3137,19 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>22.30500713189207</v>
+        <v>22.42486721882626</v>
       </c>
       <c r="D75">
-        <v>114.190530768381</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>114.2298241599797</v>
+      </c>
+      <c r="E75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1441,13 +3157,19 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>22.38052878623275</v>
+        <v>22.26618535423454</v>
       </c>
       <c r="D76">
-        <v>114.1877408423437</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>114.2370791656882</v>
+      </c>
+      <c r="E76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1455,13 +3177,19 @@
         <v>2</v>
       </c>
       <c r="C77">
-        <v>22.42486721882626</v>
+        <v>22.27834379281273</v>
       </c>
       <c r="D77">
-        <v>114.2298241599797</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>114.1780823209061</v>
+      </c>
+      <c r="E77" t="s">
+        <v>80</v>
+      </c>
+      <c r="F77" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1469,13 +3197,19 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>22.26618535423454</v>
+        <v>22.28907514898543</v>
       </c>
       <c r="D78">
-        <v>114.2370791656882</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>113.940754811986</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+      <c r="F78" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1483,13 +3217,19 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>22.27834379281273</v>
+        <v>22.30927446459837</v>
       </c>
       <c r="D79">
-        <v>114.1780823209061</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>114.2589242756367</v>
+      </c>
+      <c r="E79" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1497,13 +3237,19 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>22.28907514898543</v>
+        <v>22.50192806693315</v>
       </c>
       <c r="D80">
-        <v>113.940754811986</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>114.1296449268059</v>
+      </c>
+      <c r="E80" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1511,13 +3257,19 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>22.30927446459837</v>
+        <v>22.39653868138475</v>
       </c>
       <c r="D81">
-        <v>114.2589242756367</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>113.9747336502643</v>
+      </c>
+      <c r="E81" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1525,13 +3277,19 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>22.50192806693315</v>
+        <v>22.28395709451323</v>
       </c>
       <c r="D82">
-        <v>114.1296449268059</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>114.1522638580996</v>
+      </c>
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1539,13 +3297,19 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>22.39653868138475</v>
+        <v>22.32410139162558</v>
       </c>
       <c r="D83">
-        <v>113.9747336502643</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>114.2575465816547</v>
+      </c>
+      <c r="E83" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1553,13 +3317,19 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>22.28395709451323</v>
+        <v>22.28319725660629</v>
       </c>
       <c r="D84">
-        <v>114.1522638580996</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>114.1569068314876</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1567,13 +3337,19 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>22.32410139162558</v>
+        <v>22.39176375683413</v>
       </c>
       <c r="D85">
-        <v>114.2575465816547</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>113.9769253708071</v>
+      </c>
+      <c r="E85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1581,13 +3357,19 @@
         <v>2</v>
       </c>
       <c r="C86">
-        <v>22.28164487180452</v>
+        <v>22.28369122697503</v>
       </c>
       <c r="D86">
-        <v>114.1589553422226</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>114.2231360490405</v>
+      </c>
+      <c r="E86" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1595,13 +3377,19 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>22.39176375683413</v>
+        <v>22.36085086516672</v>
       </c>
       <c r="D87">
-        <v>113.9769253708071</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>114.111352964786</v>
+      </c>
+      <c r="E87" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1609,13 +3397,19 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>22.28369122697503</v>
+        <v>22.44380799618287</v>
       </c>
       <c r="D88">
-        <v>114.2231360490405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>114.0259420315233</v>
+      </c>
+      <c r="E88" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1623,13 +3417,19 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>22.36085086516672</v>
+        <v>22.44476553842632</v>
       </c>
       <c r="D89">
-        <v>114.111352964786</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>114.0315988717037</v>
+      </c>
+      <c r="E89" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1637,13 +3437,19 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>22.44380799618287</v>
+        <v>22.28053396421393</v>
       </c>
       <c r="D90">
-        <v>114.0259420315233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>114.1858945315962</v>
+      </c>
+      <c r="E90" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1651,13 +3457,19 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>22.44476553842632</v>
+        <v>22.33421900614714</v>
       </c>
       <c r="D91">
-        <v>114.0315988717037</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>114.1489563052312</v>
+      </c>
+      <c r="E91" t="s">
+        <v>94</v>
+      </c>
+      <c r="F91" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1665,13 +3477,19 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>22.28053396421393</v>
+        <v>22.28601354780353</v>
       </c>
       <c r="D92">
-        <v>114.1858945315962</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>114.1399750798379</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1679,13 +3497,19 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>22.33421900614714</v>
+        <v>22.2841328966918</v>
       </c>
       <c r="D93">
-        <v>114.1489563052312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>114.1568849256911</v>
+      </c>
+      <c r="E93" t="s">
+        <v>96</v>
+      </c>
+      <c r="F93" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1693,13 +3517,19 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>22.28601354780353</v>
+        <v>22.314965083722</v>
       </c>
       <c r="D94">
-        <v>114.1399750798379</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>114.1678064757265</v>
+      </c>
+      <c r="E94" t="s">
+        <v>97</v>
+      </c>
+      <c r="F94" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1707,13 +3537,19 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <v>22.28459692142678</v>
+        <v>22.36102677520616</v>
       </c>
       <c r="D95">
-        <v>114.1563326952804</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>114.1307355074918</v>
+      </c>
+      <c r="E95" t="s">
+        <v>98</v>
+      </c>
+      <c r="F95" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1721,13 +3557,19 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>22.314965083722</v>
+        <v>22.45078556010083</v>
       </c>
       <c r="D96">
-        <v>114.1678064757265</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>114.1613706878055</v>
+      </c>
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1735,13 +3577,19 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <v>22.36102677520616</v>
+        <v>22.29104268344141</v>
       </c>
       <c r="D97">
-        <v>114.1307355074918</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>114.199944155371</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F97" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1749,13 +3597,19 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>22.45078556010083</v>
+        <v>22.26526050491147</v>
       </c>
       <c r="D98">
-        <v>114.1613706878055</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>113.9996585525786</v>
+      </c>
+      <c r="E98" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1763,13 +3617,19 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>22.29104268344141</v>
+        <v>22.30247083812752</v>
       </c>
       <c r="D99">
-        <v>114.199944155371</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>114.171252105575</v>
+      </c>
+      <c r="E99" t="s">
+        <v>102</v>
+      </c>
+      <c r="F99" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1777,13 +3637,19 @@
         <v>2</v>
       </c>
       <c r="C100">
-        <v>22.26526050491147</v>
+        <v>22.30257122809073</v>
       </c>
       <c r="D100">
-        <v>113.9996585525786</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>114.1649764742332</v>
+      </c>
+      <c r="E100" t="s">
+        <v>103</v>
+      </c>
+      <c r="F100" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1791,13 +3657,19 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <v>22.30247083812752</v>
+        <v>22.3706423632745</v>
       </c>
       <c r="D101">
-        <v>114.171252105575</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>114.1117584795721</v>
+      </c>
+      <c r="E101" t="s">
+        <v>104</v>
+      </c>
+      <c r="F101" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1805,13 +3677,19 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>22.30257122809073</v>
+        <v>22.36952561673235</v>
       </c>
       <c r="D102">
-        <v>114.1649764742332</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>114.1185779277076</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1819,13 +3697,19 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <v>22.3706423632745</v>
+        <v>22.33365414708768</v>
       </c>
       <c r="D103">
-        <v>114.1117584795721</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>114.1855608754161</v>
+      </c>
+      <c r="E103" t="s">
+        <v>106</v>
+      </c>
+      <c r="F103" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1833,13 +3717,19 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>22.36952561673235</v>
+        <v>22.30413279715413</v>
       </c>
       <c r="D104">
-        <v>114.1185779277076</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>114.1630453219499</v>
+      </c>
+      <c r="E104" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1847,13 +3737,19 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>22.33365414708768</v>
+        <v>22.38622313886825</v>
       </c>
       <c r="D105">
-        <v>114.1855608754161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>114.1915378449705</v>
+      </c>
+      <c r="E105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1861,13 +3757,19 @@
         <v>2</v>
       </c>
       <c r="C106">
-        <v>22.30413279715413</v>
+        <v>22.30680297572952</v>
       </c>
       <c r="D106">
-        <v>114.1630453219499</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>114.183736744211</v>
+      </c>
+      <c r="E106" t="s">
+        <v>109</v>
+      </c>
+      <c r="F106" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1875,13 +3777,19 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>22.38622313886825</v>
+        <v>22.29953516705373</v>
       </c>
       <c r="D107">
-        <v>114.1915378449705</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>114.1763225879438</v>
+      </c>
+      <c r="E107" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1889,13 +3797,19 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>22.30680297572952</v>
+        <v>22.3263845676224</v>
       </c>
       <c r="D108">
-        <v>114.183736744211</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>114.1875122260338</v>
+      </c>
+      <c r="E108" t="s">
+        <v>111</v>
+      </c>
+      <c r="F108" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1903,13 +3817,19 @@
         <v>2</v>
       </c>
       <c r="C109">
-        <v>22.29953516705373</v>
+        <v>22.33376054090072</v>
       </c>
       <c r="D109">
-        <v>114.1763225879438</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>114.196605461365</v>
+      </c>
+      <c r="E109" t="s">
+        <v>112</v>
+      </c>
+      <c r="F109" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1917,13 +3837,19 @@
         <v>2</v>
       </c>
       <c r="C110">
-        <v>22.3263845676224</v>
+        <v>22.31548578598816</v>
       </c>
       <c r="D110">
-        <v>114.1875122260338</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>114.2183778297516</v>
+      </c>
+      <c r="E110" t="s">
+        <v>113</v>
+      </c>
+      <c r="F110" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1931,13 +3857,19 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>22.33376054090072</v>
+        <v>22.31470403341983</v>
       </c>
       <c r="D111">
-        <v>114.196605461365</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>113.9334201773972</v>
+      </c>
+      <c r="E111" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1945,13 +3877,19 @@
         <v>2</v>
       </c>
       <c r="C112">
-        <v>22.31548578598816</v>
+        <v>22.33674608537801</v>
       </c>
       <c r="D112">
-        <v>114.2183778297516</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>114.1477047522474</v>
+      </c>
+      <c r="E112" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1959,13 +3897,19 @@
         <v>2</v>
       </c>
       <c r="C113">
-        <v>22.31470403341983</v>
+        <v>22.28538702182063</v>
       </c>
       <c r="D113">
-        <v>113.9334201773972</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>114.1928026087182</v>
+      </c>
+      <c r="E113" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -1973,13 +3917,19 @@
         <v>2</v>
       </c>
       <c r="C114">
-        <v>22.33674608537801</v>
+        <v>22.28612914735324</v>
       </c>
       <c r="D114">
-        <v>114.1477047522474</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>114.2131870199655</v>
+      </c>
+      <c r="E114" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -1987,13 +3937,19 @@
         <v>2</v>
       </c>
       <c r="C115">
-        <v>22.28538702182063</v>
+        <v>22.33347091224601</v>
       </c>
       <c r="D115">
-        <v>114.1928026087182</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>114.1728833546853</v>
+      </c>
+      <c r="E115" t="s">
+        <v>118</v>
+      </c>
+      <c r="F115" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2001,13 +3957,19 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>22.28612914735324</v>
+        <v>22.2836519305373</v>
       </c>
       <c r="D116">
-        <v>114.2131870199655</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>114.1623204851394</v>
+      </c>
+      <c r="E116" t="s">
+        <v>119</v>
+      </c>
+      <c r="F116" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2015,13 +3977,19 @@
         <v>2</v>
       </c>
       <c r="C117">
-        <v>22.33347091224601</v>
+        <v>22.37015551457365</v>
       </c>
       <c r="D117">
-        <v>114.1728833546853</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>114.1168290089367</v>
+      </c>
+      <c r="E117" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2029,13 +3997,19 @@
         <v>2</v>
       </c>
       <c r="C118">
-        <v>22.28183480833412</v>
+        <v>22.32449412660945</v>
       </c>
       <c r="D118">
-        <v>114.1612889029439</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>114.1705744123581</v>
+      </c>
+      <c r="E118" t="s">
+        <v>121</v>
+      </c>
+      <c r="F118" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2043,13 +4017,19 @@
         <v>2</v>
       </c>
       <c r="C119">
-        <v>22.37015551457365</v>
+        <v>22.31627598205979</v>
       </c>
       <c r="D119">
-        <v>114.1168290089367</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>113.9367106020735</v>
+      </c>
+      <c r="E119" t="s">
+        <v>122</v>
+      </c>
+      <c r="F119" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2057,13 +4037,19 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>22.32449412660945</v>
+        <v>22.2774239009961</v>
       </c>
       <c r="D120">
-        <v>114.1705744123581</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>114.1834299026293</v>
+      </c>
+      <c r="E120" t="s">
+        <v>123</v>
+      </c>
+      <c r="F120" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2071,13 +4057,19 @@
         <v>2</v>
       </c>
       <c r="C121">
-        <v>22.31627598205979</v>
+        <v>22.28522675380131</v>
       </c>
       <c r="D121">
-        <v>113.9367106020735</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>114.1540071269432</v>
+      </c>
+      <c r="E121" t="s">
+        <v>124</v>
+      </c>
+      <c r="F121" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2085,13 +4077,19 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>22.2774239009961</v>
+        <v>22.32193799408942</v>
       </c>
       <c r="D122">
-        <v>114.1834299026293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>114.2103341239872</v>
+      </c>
+      <c r="E122" t="s">
+        <v>125</v>
+      </c>
+      <c r="F122" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2099,13 +4097,19 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>22.28522675380131</v>
+        <v>22.27601424476057</v>
       </c>
       <c r="D123">
-        <v>114.1540071269432</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>114.240499833931</v>
+      </c>
+      <c r="E123" t="s">
+        <v>126</v>
+      </c>
+      <c r="F123" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2113,13 +4117,19 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>22.32193799408942</v>
+        <v>22.31845342481716</v>
       </c>
       <c r="D124">
-        <v>114.2103341239872</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>114.218834632065</v>
+      </c>
+      <c r="E124" t="s">
+        <v>127</v>
+      </c>
+      <c r="F124" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2127,13 +4137,19 @@
         <v>2</v>
       </c>
       <c r="C125">
-        <v>22.27601424476057</v>
+        <v>22.29978836449564</v>
       </c>
       <c r="D125">
-        <v>114.240499833931</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>114.170002123103</v>
+      </c>
+      <c r="E125" t="s">
+        <v>128</v>
+      </c>
+      <c r="F125" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2141,13 +4157,19 @@
         <v>2</v>
       </c>
       <c r="C126">
-        <v>22.31845342481716</v>
+        <v>22.27933518276821</v>
       </c>
       <c r="D126">
-        <v>114.218834632065</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>114.1870108720462</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2155,13 +4177,19 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <v>22.29978836449564</v>
+        <v>22.2904213</v>
       </c>
       <c r="D127">
-        <v>114.170002123103</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>114.1983322</v>
+      </c>
+      <c r="E127" t="s">
+        <v>130</v>
+      </c>
+      <c r="F127" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2169,13 +4197,19 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>22.27933518276821</v>
+        <v>22.27964938944842</v>
       </c>
       <c r="D128">
-        <v>114.1870108720462</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>114.1686587801389</v>
+      </c>
+      <c r="E128" t="s">
+        <v>131</v>
+      </c>
+      <c r="F128" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2183,13 +4217,19 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>22.2904213</v>
+        <v>22.28786290589633</v>
       </c>
       <c r="D129">
-        <v>114.1983322</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>114.1514634673718</v>
+      </c>
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+      <c r="F129" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2197,13 +4237,19 @@
         <v>2</v>
       </c>
       <c r="C130">
-        <v>22.27964938944842</v>
+        <v>22.28357141905835</v>
       </c>
       <c r="D130">
-        <v>114.1686587801389</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>114.1554959343414</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+      <c r="F130" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2211,13 +4257,19 @@
         <v>2</v>
       </c>
       <c r="C131">
-        <v>22.28786290589633</v>
+        <v>22.29927211943776</v>
       </c>
       <c r="D131">
-        <v>114.1514634673718</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>114.1782571622876</v>
+      </c>
+      <c r="E131" t="s">
+        <v>134</v>
+      </c>
+      <c r="F131" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2225,13 +4277,19 @@
         <v>2</v>
       </c>
       <c r="C132">
-        <v>22.28539356114285</v>
+        <v>22.31074553969403</v>
       </c>
       <c r="D132">
-        <v>114.1574468997404</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>114.2228804464548</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+      <c r="F132" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2239,13 +4297,19 @@
         <v>2</v>
       </c>
       <c r="C133">
-        <v>22.29927211943776</v>
+        <v>22.3089265</v>
       </c>
       <c r="D133">
-        <v>114.1782571622876</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>114.2620995</v>
+      </c>
+      <c r="E133" t="s">
+        <v>136</v>
+      </c>
+      <c r="F133" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2253,41 +4317,53 @@
         <v>2</v>
       </c>
       <c r="C134">
-        <v>22.31074553969403</v>
+        <v>22.27903179910922</v>
       </c>
       <c r="D134">
-        <v>114.2228804464548</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>114.1827839165914</v>
+      </c>
+      <c r="E134" t="s">
+        <v>137</v>
+      </c>
+      <c r="F134" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>22.3089265</v>
+        <v>22.36785106368592</v>
       </c>
       <c r="D135">
-        <v>114.2620995</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>114.138933519674</v>
+      </c>
+      <c r="E135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>22.27903179910922</v>
+        <v>22.36345366183377</v>
       </c>
       <c r="D136">
-        <v>114.1827839165914</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>114.1719469428062</v>
+      </c>
+      <c r="E136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2295,13 +4371,16 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>22.36785106368592</v>
+        <v>22.28205672876631</v>
       </c>
       <c r="D137">
-        <v>114.138933519674</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>114.1283707644727</v>
+      </c>
+      <c r="E137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2309,13 +4388,16 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>22.36345366183377</v>
+        <v>22.34971414166354</v>
       </c>
       <c r="D138">
-        <v>114.1719469428062</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>114.1991720272513</v>
+      </c>
+      <c r="E138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2323,13 +4405,16 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>22.34971414166354</v>
+        <v>22.37151481692344</v>
       </c>
       <c r="D139">
-        <v>114.1991720272513</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>113.9924444626882</v>
+      </c>
+      <c r="E139" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2337,13 +4422,16 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>22.37151481692344</v>
+        <v>22.34484482942293</v>
       </c>
       <c r="D140">
-        <v>113.9924444626882</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>114.1926126712409</v>
+      </c>
+      <c r="E140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2351,13 +4439,16 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>22.34484482942293</v>
+        <v>22.34528482974979</v>
       </c>
       <c r="D141">
-        <v>114.1926126712409</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>114.1940175538091</v>
+      </c>
+      <c r="E141" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2365,13 +4456,16 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>22.34528482974979</v>
+        <v>22.29650995345473</v>
       </c>
       <c r="D142">
-        <v>114.1940175538091</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>114.0170082152365</v>
+      </c>
+      <c r="E142" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2379,13 +4473,16 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>22.29650995345473</v>
+        <v>22.33882513378464</v>
       </c>
       <c r="D143">
-        <v>114.0170082152365</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>114.1548863295599</v>
+      </c>
+      <c r="E143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2393,13 +4490,16 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>22.33882513378464</v>
+        <v>22.25715513861739</v>
       </c>
       <c r="D144">
-        <v>114.1548863295599</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>114.1381729313833</v>
+      </c>
+      <c r="E144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2412,8 +4512,11 @@
       <c r="D145">
         <v>114.1388940811157</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2426,8 +4529,11 @@
       <c r="D146">
         <v>114.2511784944763</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2440,8 +4546,11 @@
       <c r="D147">
         <v>113.9982786024161</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2454,8 +4563,11 @@
       <c r="D148">
         <v>114.1935628058085</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2468,8 +4580,11 @@
       <c r="D149">
         <v>114.161482426941</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2482,8 +4597,11 @@
       <c r="D150">
         <v>114.2155384674482</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2496,8 +4614,11 @@
       <c r="D151">
         <v>114.2283906838734</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2510,8 +4631,11 @@
       <c r="D152">
         <v>114.2284946415221</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2524,8 +4648,11 @@
       <c r="D153">
         <v>114.2392790532763</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2538,8 +4665,11 @@
       <c r="D154">
         <v>114.1660641914325</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2552,8 +4682,11 @@
       <c r="D155">
         <v>114.1624157825789</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2566,8 +4699,11 @@
       <c r="D156">
         <v>114.2050244464666</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2580,8 +4716,11 @@
       <c r="D157">
         <v>113.9624795471418</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2594,8 +4733,11 @@
       <c r="D158">
         <v>113.9354458457188</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2608,8 +4750,11 @@
       <c r="D159">
         <v>113.9693737138688</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2622,8 +4767,11 @@
       <c r="D160">
         <v>114.1698560492434</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2636,8 +4784,11 @@
       <c r="D161">
         <v>114.1927171667935</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2650,8 +4801,11 @@
       <c r="D162">
         <v>114.2012300841473</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2664,8 +4818,11 @@
       <c r="D163">
         <v>114.2302388553453</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2678,8 +4835,11 @@
       <c r="D164">
         <v>114.1033470612185</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2692,8 +4852,11 @@
       <c r="D165">
         <v>114.2218816280365</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2706,8 +4869,11 @@
       <c r="D166">
         <v>114.2559464015528</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2720,8 +4886,11 @@
       <c r="D167">
         <v>114.175197849995</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2734,8 +4903,11 @@
       <c r="D168">
         <v>114.2278030368437</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2748,8 +4920,11 @@
       <c r="D169">
         <v>114.1419918263295</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2762,8 +4937,11 @@
       <c r="D170">
         <v>114.0027666091919</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2776,8 +4954,11 @@
       <c r="D171">
         <v>113.9630414613411</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2790,8 +4971,11 @@
       <c r="D172">
         <v>114.1392595100795</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2804,8 +4988,11 @@
       <c r="D173">
         <v>113.9754724502563</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2818,8 +5005,11 @@
       <c r="D174">
         <v>114.1702293173985</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2832,8 +5022,11 @@
       <c r="D175">
         <v>114.1723792706762</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2846,8 +5039,11 @@
       <c r="D176">
         <v>114.1086961644933</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2855,13 +5051,16 @@
         <v>0</v>
       </c>
       <c r="C177">
-        <v>22.20868934294697</v>
+        <v>22.32950303296163</v>
       </c>
       <c r="D177">
-        <v>114.0286954434421</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>114.2059315894279</v>
+      </c>
+      <c r="E177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2869,13 +5068,16 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>22.32950303296163</v>
+        <v>22.33364884301583</v>
       </c>
       <c r="D178">
-        <v>114.2059315894279</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>114.2147445080969</v>
+      </c>
+      <c r="E178" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2883,13 +5085,16 @@
         <v>0</v>
       </c>
       <c r="C179">
-        <v>22.33364884301583</v>
+        <v>22.45286061371326</v>
       </c>
       <c r="D179">
-        <v>114.2147445080969</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>114.1683781126015</v>
+      </c>
+      <c r="E179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2897,13 +5102,16 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>22.45286061371326</v>
+        <v>22.31872967289272</v>
       </c>
       <c r="D180">
-        <v>114.1683781126015</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>114.2315123137576</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2911,13 +5119,16 @@
         <v>0</v>
       </c>
       <c r="C181">
-        <v>22.31872967289272</v>
+        <v>22.3968822207635</v>
       </c>
       <c r="D181">
-        <v>114.2315123137576</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>113.967264014793</v>
+      </c>
+      <c r="E181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2925,13 +5136,16 @@
         <v>0</v>
       </c>
       <c r="C182">
-        <v>22.3968822207635</v>
+        <v>22.32325343374294</v>
       </c>
       <c r="D182">
-        <v>113.967264014793</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>114.2484503590323</v>
+      </c>
+      <c r="E182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -2939,13 +5153,16 @@
         <v>0</v>
       </c>
       <c r="C183">
-        <v>22.32325343374294</v>
+        <v>22.42231780479414</v>
       </c>
       <c r="D183">
-        <v>114.2484503590323</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>114.2269290744542</v>
+      </c>
+      <c r="E183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -2953,13 +5170,16 @@
         <v>0</v>
       </c>
       <c r="C184">
-        <v>22.42231780479414</v>
+        <v>22.3494310061388</v>
       </c>
       <c r="D184">
-        <v>114.2269290744542</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>114.1058089981539</v>
+      </c>
+      <c r="E184" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -2967,13 +5187,16 @@
         <v>0</v>
       </c>
       <c r="C185">
-        <v>22.3494310061388</v>
+        <v>22.31041345018146</v>
       </c>
       <c r="D185">
-        <v>114.1058089981539</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>114.2380285263062</v>
+      </c>
+      <c r="E185" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -2981,13 +5204,16 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>22.31041345018146</v>
+        <v>22.41373624995233</v>
       </c>
       <c r="D186">
-        <v>114.2380285263062</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>113.9831757545471</v>
+      </c>
+      <c r="E186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -2995,13 +5221,16 @@
         <v>0</v>
       </c>
       <c r="C187">
-        <v>22.41373624995233</v>
+        <v>22.5006435601989</v>
       </c>
       <c r="D187">
-        <v>113.9831757545471</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>114.1261252730944</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3009,13 +5238,16 @@
         <v>0</v>
       </c>
       <c r="C188">
-        <v>22.5006435601989</v>
+        <v>22.37767931330318</v>
       </c>
       <c r="D188">
-        <v>114.1261252730944</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>114.1761020617686</v>
+      </c>
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3023,13 +5255,16 @@
         <v>0</v>
       </c>
       <c r="C189">
-        <v>22.37767931330318</v>
+        <v>22.2782064911206</v>
       </c>
       <c r="D189">
-        <v>114.1761020617686</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>114.2264563118444</v>
+      </c>
+      <c r="E189" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3037,13 +5272,16 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>22.2782064911206</v>
+        <v>22.39190965768437</v>
       </c>
       <c r="D190">
-        <v>114.2264563118444</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>113.975308253873</v>
+      </c>
+      <c r="E190" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3051,13 +5289,16 @@
         <v>0</v>
       </c>
       <c r="C191">
-        <v>22.39190965768437</v>
+        <v>22.33621936778189</v>
       </c>
       <c r="D191">
-        <v>113.975308253873</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>114.197320751686</v>
+      </c>
+      <c r="E191" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3065,13 +5306,16 @@
         <v>0</v>
       </c>
       <c r="C192">
-        <v>22.33621936778189</v>
+        <v>22.37530735758083</v>
       </c>
       <c r="D192">
-        <v>114.197320751686</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>114.1242063045502</v>
+      </c>
+      <c r="E192" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3079,13 +5323,16 @@
         <v>0</v>
       </c>
       <c r="C193">
-        <v>22.37530735758083</v>
+        <v>22.4445773411999</v>
       </c>
       <c r="D193">
-        <v>114.1242063045502</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>114.0240470463014</v>
+      </c>
+      <c r="E193" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3093,13 +5340,16 @@
         <v>0</v>
       </c>
       <c r="C194">
-        <v>22.4445773411999</v>
+        <v>22.32176342031505</v>
       </c>
       <c r="D194">
-        <v>114.0240470463014</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>114.2568261455428</v>
+      </c>
+      <c r="E194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3107,13 +5357,16 @@
         <v>0</v>
       </c>
       <c r="C195">
-        <v>22.32176342031505</v>
+        <v>22.33669847830284</v>
       </c>
       <c r="D195">
-        <v>114.2568261455428</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>114.1585806339908</v>
+      </c>
+      <c r="E195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3121,13 +5374,16 @@
         <v>0</v>
       </c>
       <c r="C196">
-        <v>22.33669847830284</v>
+        <v>22.35347348148327</v>
       </c>
       <c r="D196">
-        <v>114.1585806339908</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>114.1089894763338</v>
+      </c>
+      <c r="E196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3135,13 +5391,16 @@
         <v>0</v>
       </c>
       <c r="C197">
-        <v>22.35347348148327</v>
+        <v>22.50201961342344</v>
       </c>
       <c r="D197">
-        <v>114.1089894763338</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>114.1329184502961</v>
+      </c>
+      <c r="E197" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3149,13 +5408,16 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>22.50201961342344</v>
+        <v>22.4122233042004</v>
       </c>
       <c r="D198">
-        <v>114.1329184502961</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>113.977642924807</v>
+      </c>
+      <c r="E198" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3163,13 +5425,16 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>22.4122233042004</v>
+        <v>22.30753734570377</v>
       </c>
       <c r="D199">
-        <v>113.977642924807</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>114.1685954514719</v>
+      </c>
+      <c r="E199" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3177,13 +5442,16 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>22.30753734570377</v>
+        <v>22.334585</v>
       </c>
       <c r="D200">
-        <v>114.1685954514719</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>114.160181</v>
+      </c>
+      <c r="E200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3191,13 +5459,16 @@
         <v>0</v>
       </c>
       <c r="C201">
-        <v>22.334585</v>
+        <v>22.31893034022785</v>
       </c>
       <c r="D201">
-        <v>114.160181</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>114.1877536005581</v>
+      </c>
+      <c r="E201" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -3205,13 +5476,16 @@
         <v>0</v>
       </c>
       <c r="C202">
-        <v>22.31893034022785</v>
+        <v>22.37210965395856</v>
       </c>
       <c r="D202">
-        <v>114.1877536005581</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>114.1391657601159</v>
+      </c>
+      <c r="E202" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -3219,13 +5493,16 @@
         <v>0</v>
       </c>
       <c r="C203">
-        <v>22.37210965395856</v>
+        <v>22.3698269426916</v>
       </c>
       <c r="D203">
-        <v>114.1391657601159</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>114.1819017451788</v>
+      </c>
+      <c r="E203" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -3233,13 +5510,16 @@
         <v>0</v>
       </c>
       <c r="C204">
-        <v>22.3698269426916</v>
+        <v>22.287257</v>
       </c>
       <c r="D204">
-        <v>114.1819017451788</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>114.211313</v>
+      </c>
+      <c r="E204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -3247,13 +5527,16 @@
         <v>0</v>
       </c>
       <c r="C205">
-        <v>22.287257</v>
+        <v>22.31498767906497</v>
       </c>
       <c r="D205">
-        <v>114.211313</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>114.2312162693513</v>
+      </c>
+      <c r="E205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -3261,13 +5544,16 @@
         <v>0</v>
       </c>
       <c r="C206">
-        <v>22.31498767906497</v>
+        <v>22.46835692586068</v>
       </c>
       <c r="D206">
-        <v>114.2312162693513</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>113.9996608534819</v>
+      </c>
+      <c r="E206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -3275,13 +5561,16 @@
         <v>0</v>
       </c>
       <c r="C207">
-        <v>22.46835692586068</v>
+        <v>22.27784948392318</v>
       </c>
       <c r="D207">
-        <v>113.9996608534819</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>114.2299159934786</v>
+      </c>
+      <c r="E207" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -3289,13 +5578,16 @@
         <v>0</v>
       </c>
       <c r="C208">
-        <v>22.27784948392318</v>
+        <v>22.31238351107266</v>
       </c>
       <c r="D208">
-        <v>114.2299159934786</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>114.1707282590401</v>
+      </c>
+      <c r="E208" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -3303,13 +5595,16 @@
         <v>0</v>
       </c>
       <c r="C209">
-        <v>22.31238351107266</v>
+        <v>22.32001212563265</v>
       </c>
       <c r="D209">
-        <v>114.1707282590401</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>114.1658732488393</v>
+      </c>
+      <c r="E209" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -3317,13 +5612,16 @@
         <v>0</v>
       </c>
       <c r="C210">
-        <v>22.32001212563265</v>
+        <v>22.26143202004891</v>
       </c>
       <c r="D210">
-        <v>114.1658732488393</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>114.1301052671162</v>
+      </c>
+      <c r="E210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -3331,13 +5629,16 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>22.26143202004891</v>
+        <v>22.36375109762177</v>
       </c>
       <c r="D211">
-        <v>114.1301052671162</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>114.127420048975</v>
+      </c>
+      <c r="E211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -3345,13 +5646,16 @@
         <v>0</v>
       </c>
       <c r="C212">
-        <v>22.36375109762177</v>
+        <v>22.4685338569545</v>
       </c>
       <c r="D212">
-        <v>114.127420048975</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>113.9999105874881</v>
+      </c>
+      <c r="E212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -3359,13 +5663,16 @@
         <v>0</v>
       </c>
       <c r="C213">
-        <v>22.4685338569545</v>
+        <v>22.34186121233344</v>
       </c>
       <c r="D213">
-        <v>113.9999105874881</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>114.1953469633316</v>
+      </c>
+      <c r="E213" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -3373,13 +5680,16 @@
         <v>0</v>
       </c>
       <c r="C214">
-        <v>22.34186121233344</v>
+        <v>22.403219</v>
       </c>
       <c r="D214">
-        <v>114.1953469633316</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>113.979957</v>
+      </c>
+      <c r="E214" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -3387,13 +5697,16 @@
         <v>0</v>
       </c>
       <c r="C215">
-        <v>22.403219</v>
+        <v>22.37412002563475</v>
       </c>
       <c r="D215">
-        <v>113.979957</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>114.1162082115675</v>
+      </c>
+      <c r="E215" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -3401,13 +5714,16 @@
         <v>0</v>
       </c>
       <c r="C216">
-        <v>22.37412002563475</v>
+        <v>22.412116</v>
       </c>
       <c r="D216">
-        <v>114.1162082115675</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>113.981922</v>
+      </c>
+      <c r="E216" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -3415,13 +5731,16 @@
         <v>0</v>
       </c>
       <c r="C217">
-        <v>22.412116</v>
+        <v>22.3255966270441</v>
       </c>
       <c r="D217">
-        <v>113.981922</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
+        <v>114.1642063766975</v>
+      </c>
+      <c r="E217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -3429,13 +5748,16 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>22.3255966270441</v>
+        <v>22.32447247260231</v>
       </c>
       <c r="D218">
-        <v>114.1642063766975</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>114.1680335998535</v>
+      </c>
+      <c r="E218" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -3443,13 +5765,16 @@
         <v>0</v>
       </c>
       <c r="C219">
-        <v>22.32447247260231</v>
+        <v>22.33114006723123</v>
       </c>
       <c r="D219">
-        <v>114.1680335998535</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>114.2025594160792</v>
+      </c>
+      <c r="E219" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -3457,13 +5782,16 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>22.33114006723123</v>
+        <v>22.39197239368058</v>
       </c>
       <c r="D220">
-        <v>114.2025594160792</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>113.9758890601317</v>
+      </c>
+      <c r="E220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -3471,13 +5799,16 @@
         <v>0</v>
       </c>
       <c r="C221">
-        <v>22.39197239368058</v>
+        <v>22.33406873013015</v>
       </c>
       <c r="D221">
-        <v>113.9758890601317</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
+        <v>114.2101211333401</v>
+      </c>
+      <c r="E221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -3485,13 +5816,16 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>22.33406873013015</v>
+        <v>22.44848357670485</v>
       </c>
       <c r="D222">
-        <v>114.2101211333401</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>114.1741165670423</v>
+      </c>
+      <c r="E222" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -3499,13 +5833,16 @@
         <v>0</v>
       </c>
       <c r="C223">
-        <v>22.44848357670485</v>
+        <v>22.39094781945833</v>
       </c>
       <c r="D223">
-        <v>114.1741165670423</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>114.2070037929738</v>
+      </c>
+      <c r="E223" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -3513,13 +5850,16 @@
         <v>0</v>
       </c>
       <c r="C224">
-        <v>22.39094781945833</v>
+        <v>22.32339997607319</v>
       </c>
       <c r="D224">
-        <v>114.2070037929738</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
+        <v>114.2045191984399</v>
+      </c>
+      <c r="E224" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -3527,13 +5867,16 @@
         <v>0</v>
       </c>
       <c r="C225">
-        <v>22.32339997607319</v>
+        <v>22.378684</v>
       </c>
       <c r="D225">
-        <v>114.2045191984399</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>114.107635</v>
+      </c>
+      <c r="E225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -3541,13 +5884,16 @@
         <v>0</v>
       </c>
       <c r="C226">
-        <v>22.378684</v>
+        <v>22.37429645768248</v>
       </c>
       <c r="D226">
-        <v>114.107635</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>114.1048102894974</v>
+      </c>
+      <c r="E226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -3555,13 +5901,16 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <v>22.37429645768248</v>
+        <v>22.51179134089005</v>
       </c>
       <c r="D227">
-        <v>114.1048102894974</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>114.1239711758203</v>
+      </c>
+      <c r="E227" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -3569,13 +5918,16 @@
         <v>0</v>
       </c>
       <c r="C228">
-        <v>22.51179134089005</v>
+        <v>22.38139906184487</v>
       </c>
       <c r="D228">
-        <v>114.1239711758203</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>113.9642437602542</v>
+      </c>
+      <c r="E228" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -3583,13 +5935,16 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <v>22.38139906184487</v>
+        <v>22.3165744455902</v>
       </c>
       <c r="D229">
-        <v>113.9642437602542</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>114.2641456070068</v>
+      </c>
+      <c r="E229" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -3597,13 +5952,16 @@
         <v>0</v>
       </c>
       <c r="C230">
-        <v>22.3165744455902</v>
+        <v>22.44538200991547</v>
       </c>
       <c r="D230">
-        <v>114.2641456070068</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>114.0343737602234</v>
+      </c>
+      <c r="E230" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -3611,13 +5969,16 @@
         <v>0</v>
       </c>
       <c r="C231">
-        <v>22.44538200991547</v>
+        <v>22.3465962145894</v>
       </c>
       <c r="D231">
-        <v>114.0343737602234</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>114.2023074302426</v>
+      </c>
+      <c r="E231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -3625,13 +5986,16 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <v>22.3465962145894</v>
+        <v>22.298759</v>
       </c>
       <c r="D232">
-        <v>114.2023074302426</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>114.23694</v>
+      </c>
+      <c r="E232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -3639,13 +6003,16 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>22.298759</v>
+        <v>22.28574098554127</v>
       </c>
       <c r="D233">
-        <v>114.23694</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>114.2178583145142</v>
+      </c>
+      <c r="E233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -3653,13 +6020,16 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>22.28574098554127</v>
+        <v>22.378266</v>
       </c>
       <c r="D234">
-        <v>114.2178583145142</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>114.193527</v>
+      </c>
+      <c r="E234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -3667,13 +6037,16 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <v>22.378266</v>
+        <v>22.48800744667544</v>
       </c>
       <c r="D235">
-        <v>114.193527</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>114.1421558722275</v>
+      </c>
+      <c r="E235" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3681,13 +6054,16 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <v>22.48800744667544</v>
+        <v>22.367222</v>
       </c>
       <c r="D236">
-        <v>114.1421558722275</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>114.13341</v>
+      </c>
+      <c r="E236" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3695,13 +6071,16 @@
         <v>0</v>
       </c>
       <c r="C237">
-        <v>22.367222</v>
+        <v>22.46469715211398</v>
       </c>
       <c r="D237">
-        <v>114.13341</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>114.0027317404747</v>
+      </c>
+      <c r="E237" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -3709,13 +6088,16 @@
         <v>0</v>
       </c>
       <c r="C238">
-        <v>22.46469715211398</v>
+        <v>22.325593</v>
       </c>
       <c r="D238">
-        <v>114.0027317404747</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>114.16459</v>
+      </c>
+      <c r="E238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -3723,13 +6105,16 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>22.325593</v>
+        <v>22.403063</v>
       </c>
       <c r="D239">
-        <v>114.16459</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>113.97084</v>
+      </c>
+      <c r="E239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -3737,13 +6122,16 @@
         <v>0</v>
       </c>
       <c r="C240">
-        <v>22.403063</v>
+        <v>22.308758</v>
       </c>
       <c r="D240">
-        <v>113.97084</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>114.26306</v>
+      </c>
+      <c r="E240" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -3751,13 +6139,16 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>22.308758</v>
+        <v>22.298752</v>
       </c>
       <c r="D241">
-        <v>114.26306</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>114.2368</v>
+      </c>
+      <c r="E241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -3765,27 +6156,33 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <v>22.298752</v>
+        <v>22.354343</v>
       </c>
       <c r="D242">
-        <v>114.2368</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>114.10357</v>
+      </c>
+      <c r="E242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243">
-        <v>22.354343</v>
+        <v>22.256529496435</v>
       </c>
       <c r="D243">
-        <v>114.10357</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>113.902582846465</v>
+      </c>
+      <c r="F243" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -3793,13 +6190,16 @@
         <v>1</v>
       </c>
       <c r="C244">
-        <v>22.256529496435</v>
+        <v>22.27907445710351</v>
       </c>
       <c r="D244">
-        <v>113.902582846465</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>114.1606779099743</v>
+      </c>
+      <c r="F244" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -3807,13 +6207,16 @@
         <v>1</v>
       </c>
       <c r="C245">
-        <v>22.27907445710351</v>
+        <v>22.29637359494074</v>
       </c>
       <c r="D245">
-        <v>114.1606779099743</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>114.1687321273991</v>
+      </c>
+      <c r="F245" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -3821,13 +6224,16 @@
         <v>1</v>
       </c>
       <c r="C246">
-        <v>22.29637359494074</v>
+        <v>22.52906653098054</v>
       </c>
       <c r="D246">
-        <v>114.1687321273991</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>114.113027360831</v>
+      </c>
+      <c r="F246" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -3835,13 +6241,16 @@
         <v>1</v>
       </c>
       <c r="C247">
-        <v>22.28315083811669</v>
+        <v>22.29679851388877</v>
       </c>
       <c r="D247">
-        <v>114.1570398686827</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>114.1691191981868</v>
+      </c>
+      <c r="F247" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -3849,13 +6258,16 @@
         <v>1</v>
       </c>
       <c r="C248">
-        <v>22.52906653098054</v>
+        <v>22.31113031284842</v>
       </c>
       <c r="D248">
-        <v>114.113027360831</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>113.9265507716291</v>
+      </c>
+      <c r="F248" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -3863,13 +6275,16 @@
         <v>1</v>
       </c>
       <c r="C249">
-        <v>22.29679851388877</v>
+        <v>22.31714057382269</v>
       </c>
       <c r="D249">
-        <v>114.1691191981868</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>113.9303105159704</v>
+      </c>
+      <c r="F249" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -3877,13 +6292,16 @@
         <v>1</v>
       </c>
       <c r="C250">
-        <v>22.31113031284842</v>
+        <v>22.28104664630229</v>
       </c>
       <c r="D250">
-        <v>113.9265507716291</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>114.1597702077688</v>
+      </c>
+      <c r="F250" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -3891,13 +6309,16 @@
         <v>1</v>
       </c>
       <c r="C251">
-        <v>22.31714057382269</v>
+        <v>22.29448250235595</v>
       </c>
       <c r="D251">
-        <v>113.9303105159704</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>114.1690799553296</v>
+      </c>
+      <c r="F251" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -3905,13 +6326,16 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>22.28104664630229</v>
+        <v>22.28493759454223</v>
       </c>
       <c r="D252">
-        <v>114.1597702077688</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>114.1592761813951</v>
+      </c>
+      <c r="F252" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -3919,13 +6343,16 @@
         <v>1</v>
       </c>
       <c r="C253">
-        <v>22.29448250235595</v>
+        <v>22.29724655516695</v>
       </c>
       <c r="D253">
-        <v>114.1690799553296</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>114.176283532141</v>
+      </c>
+      <c r="F253" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -3933,13 +6360,16 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <v>22.28493759454223</v>
+        <v>22.28652306830788</v>
       </c>
       <c r="D254">
-        <v>114.1592761813951</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>114.1519750981913</v>
+      </c>
+      <c r="F254" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -3947,13 +6377,16 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>22.29724655516695</v>
+        <v>22.27954968152744</v>
       </c>
       <c r="D255">
-        <v>114.176283532141</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>114.1652415540455</v>
+      </c>
+      <c r="F255" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -3961,13 +6394,16 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>22.28652306830788</v>
+        <v>22.28605625602404</v>
       </c>
       <c r="D256">
-        <v>114.1519750981913</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>114.1566897315827</v>
+      </c>
+      <c r="F256" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -3975,13 +6411,16 @@
         <v>1</v>
       </c>
       <c r="C257">
-        <v>22.27954968152744</v>
+        <v>22.28107111774397</v>
       </c>
       <c r="D257">
-        <v>114.1652415540455</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>114.1669675924961</v>
+      </c>
+      <c r="F257" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -3989,13 +6428,16 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>22.28605625602404</v>
+        <v>22.28257267762816</v>
       </c>
       <c r="D258">
-        <v>114.1566897315827</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>114.1559622299567</v>
+      </c>
+      <c r="F258" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -4003,13 +6445,16 @@
         <v>1</v>
       </c>
       <c r="C259">
-        <v>22.28107111774397</v>
+        <v>22.27853966599734</v>
       </c>
       <c r="D259">
-        <v>114.1669675924961</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>114.1646863023526</v>
+      </c>
+      <c r="F259" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -4017,13 +6462,16 @@
         <v>1</v>
       </c>
       <c r="C260">
-        <v>22.28257267762816</v>
+        <v>22.27975229958153</v>
       </c>
       <c r="D260">
-        <v>114.1559622299567</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>114.1612989793069</v>
+      </c>
+      <c r="F260" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -4031,13 +6479,16 @@
         <v>1</v>
       </c>
       <c r="C261">
-        <v>22.27853966599734</v>
+        <v>22.31464546323946</v>
       </c>
       <c r="D261">
-        <v>114.1646863023526</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>113.9363991537311</v>
+      </c>
+      <c r="F261" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -4045,13 +6496,16 @@
         <v>1</v>
       </c>
       <c r="C262">
-        <v>22.27975229958153</v>
+        <v>22.27984330653671</v>
       </c>
       <c r="D262">
-        <v>114.1612989793069</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>114.183680404256</v>
+      </c>
+      <c r="F262" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -4059,13 +6513,16 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <v>22.31464546323946</v>
+        <v>22.36718676654893</v>
       </c>
       <c r="D263">
-        <v>113.9363991537311</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>114.0594967173466</v>
+      </c>
+      <c r="F263" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -4073,13 +6530,16 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>22.27984330653671</v>
+        <v>22.32098155740572</v>
       </c>
       <c r="D264">
-        <v>114.183680404256</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>113.9440687668414</v>
+      </c>
+      <c r="F264" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -4087,13 +6547,16 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>22.36718676654893</v>
+        <v>22.28528800016588</v>
       </c>
       <c r="D265">
-        <v>114.0594967173466</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
+        <v>114.1501986689113</v>
+      </c>
+      <c r="F265" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -4101,13 +6564,16 @@
         <v>1</v>
       </c>
       <c r="C266">
-        <v>22.32098155740572</v>
+        <v>22.28434872426549</v>
       </c>
       <c r="D266">
-        <v>113.9440687668414</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4">
+        <v>114.142493437589</v>
+      </c>
+      <c r="F266" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -4115,13 +6581,16 @@
         <v>1</v>
       </c>
       <c r="C267">
-        <v>22.28528800016588</v>
+        <v>22.2743664004983</v>
       </c>
       <c r="D267">
-        <v>114.1501986689113</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>114.1850192611588</v>
+      </c>
+      <c r="F267" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -4129,13 +6598,16 @@
         <v>1</v>
       </c>
       <c r="C268">
-        <v>22.28434872426549</v>
+        <v>22.31748838468674</v>
       </c>
       <c r="D268">
-        <v>114.142493437589</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>113.9335235522093</v>
+      </c>
+      <c r="F268" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -4143,13 +6615,16 @@
         <v>1</v>
       </c>
       <c r="C269">
-        <v>22.2743664004983</v>
+        <v>22.28062853552282</v>
       </c>
       <c r="D269">
-        <v>114.1850192611588</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>114.1866219067053</v>
+      </c>
+      <c r="F269" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -4157,13 +6632,16 @@
         <v>1</v>
       </c>
       <c r="C270">
-        <v>22.31748838468674</v>
+        <v>22.29980345124144</v>
       </c>
       <c r="D270">
-        <v>113.9335235522093</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>114.1725828401798</v>
+      </c>
+      <c r="F270" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -4171,13 +6649,16 @@
         <v>1</v>
       </c>
       <c r="C271">
-        <v>22.28062853552282</v>
+        <v>22.29751716131253</v>
       </c>
       <c r="D271">
-        <v>114.1866219067053</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>114.1731560489491</v>
+      </c>
+      <c r="F271" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -4185,13 +6666,16 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>22.29980345124144</v>
+        <v>22.33766726886715</v>
       </c>
       <c r="D272">
-        <v>114.1725828401798</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>114.2632081939452</v>
+      </c>
+      <c r="F272" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -4199,13 +6683,16 @@
         <v>1</v>
       </c>
       <c r="C273">
-        <v>22.29751716131253</v>
+        <v>22.30098117809503</v>
       </c>
       <c r="D273">
-        <v>114.1731560489491</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>114.1755634132986</v>
+      </c>
+      <c r="F273" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -4213,13 +6700,16 @@
         <v>1</v>
       </c>
       <c r="C274">
-        <v>22.33766726886715</v>
+        <v>22.30835919461099</v>
       </c>
       <c r="D274">
-        <v>114.2632081939452</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>113.9184509262424</v>
+      </c>
+      <c r="F274" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -4227,13 +6717,16 @@
         <v>1</v>
       </c>
       <c r="C275">
-        <v>22.30098117809503</v>
+        <v>22.27832088732372</v>
       </c>
       <c r="D275">
-        <v>114.1755634132986</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>114.1848741826926</v>
+      </c>
+      <c r="F275" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -4241,13 +6734,16 @@
         <v>1</v>
       </c>
       <c r="C276">
-        <v>22.30835919461099</v>
+        <v>22.42454018710705</v>
       </c>
       <c r="D276">
-        <v>113.9184509262424</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>114.2139691814833</v>
+      </c>
+      <c r="F276" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -4255,13 +6751,16 @@
         <v>1</v>
       </c>
       <c r="C277">
-        <v>22.27832088732372</v>
+        <v>22.29657066160181</v>
       </c>
       <c r="D277">
-        <v>114.1848741826926</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>114.1712246949603</v>
+      </c>
+      <c r="F277" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -4269,13 +6768,16 @@
         <v>1</v>
       </c>
       <c r="C278">
-        <v>22.42454018710705</v>
+        <v>22.28681924627264</v>
       </c>
       <c r="D278">
-        <v>114.2139691814833</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>114.1355319368813</v>
+      </c>
+      <c r="F278" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -4283,13 +6785,16 @@
         <v>1</v>
       </c>
       <c r="C279">
-        <v>22.29657066160181</v>
+        <v>22.29104449274408</v>
       </c>
       <c r="D279">
-        <v>114.1712246949603</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>113.9432080619676</v>
+      </c>
+      <c r="F279" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -4297,13 +6802,16 @@
         <v>1</v>
       </c>
       <c r="C280">
-        <v>22.28681924627264</v>
+        <v>22.2780524537651</v>
       </c>
       <c r="D280">
-        <v>114.1355319368813</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>114.1667972872048</v>
+      </c>
+      <c r="F280" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -4311,13 +6819,16 @@
         <v>1</v>
       </c>
       <c r="C281">
-        <v>22.29104449274408</v>
+        <v>22.29484826137432</v>
       </c>
       <c r="D281">
-        <v>113.9432080619676</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>113.9496342613428</v>
+      </c>
+      <c r="F281" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -4325,13 +6836,16 @@
         <v>1</v>
       </c>
       <c r="C282">
-        <v>22.2780524537651</v>
+        <v>22.27753877649452</v>
       </c>
       <c r="D282">
-        <v>114.1667972872048</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>114.1698502686943</v>
+      </c>
+      <c r="F282" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -4339,13 +6853,16 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>22.29484826137432</v>
+        <v>22.514917</v>
       </c>
       <c r="D283">
-        <v>113.9496342613428</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>114.06566</v>
+      </c>
+      <c r="F283" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -4353,13 +6870,16 @@
         <v>1</v>
       </c>
       <c r="C284">
-        <v>22.27753877649452</v>
+        <v>22.308568</v>
       </c>
       <c r="D284">
-        <v>114.1698502686943</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>114.016465</v>
+      </c>
+      <c r="F284" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -4367,13 +6887,16 @@
         <v>1</v>
       </c>
       <c r="C285">
-        <v>22.514917</v>
+        <v>22.279886</v>
       </c>
       <c r="D285">
-        <v>114.06566</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>114.16028</v>
+      </c>
+      <c r="F285" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -4381,13 +6904,16 @@
         <v>1</v>
       </c>
       <c r="C286">
-        <v>22.308568</v>
+        <v>22.27824969517954</v>
       </c>
       <c r="D286">
-        <v>114.016465</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
+        <v>114.1850570864121</v>
+      </c>
+      <c r="F286" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -4395,13 +6921,16 @@
         <v>1</v>
       </c>
       <c r="C287">
-        <v>22.27824969517954</v>
+        <v>22.297353</v>
       </c>
       <c r="D287">
-        <v>114.1850570864121</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
+        <v>114.173059</v>
+      </c>
+      <c r="F287" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -4409,24 +6938,13 @@
         <v>1</v>
       </c>
       <c r="C288">
-        <v>22.297353</v>
+        <v>22.274715</v>
       </c>
       <c r="D288">
-        <v>114.173059</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-      <c r="C289">
-        <v>22.274715</v>
-      </c>
-      <c r="D289">
         <v>114.17186</v>
+      </c>
+      <c r="F288" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
